--- a/ASM_Future-Interior_Project-G2/src/main/resources/static/fileExport/baiDangs.xlsx
+++ b/ASM_Future-Interior_Project-G2/src/main/resources/static/fileExport/baiDangs.xlsx
@@ -161,7 +161,7 @@
     <t>anh_nen_7.jpg</t>
   </si>
   <si>
-    <t>MikeNguyen</t>
+    <t>Mikenguyen</t>
   </si>
   <si>
     <t>Mo_ta_7</t>
@@ -227,19 +227,19 @@
     <t>1nG - Không Phải Yêu ft. JDEN | Prod. KayTee, VRT (Official MV)</t>
   </si>
   <si>
-    <t>1NG</t>
-  </si>
-  <si>
-    <t>2023-06-08</t>
-  </si>
-  <si>
-    <t>a091_aurora__9.jpg</t>
-  </si>
-  <si>
-    <t>COMPOSER &amp; PERFORMER: 1NG, JDEN MUSIC PRODUCER: KAYTEE, VRT VOCAL MIX: JOKE D INSTRUMENTAL MIX: VRT</t>
-  </si>
-  <si>
-    <t>SDASDASDSADASDA</t>
+    <t>marzuz, Gill, Onionn,Sintea</t>
+  </si>
+  <si>
+    <t>2023-06-12</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/ChucPhuong.png?alt=media&amp;token=6242e15f-8841-455c-b7be-c15fd571559c</t>
+  </si>
+  <si>
+    <t>njnjkjkhjkhjk</t>
+  </si>
+  <si>
+    <t>jkhjkhjhjkhkjjkhjk</t>
   </si>
 </sst>
 </file>
@@ -304,21 +304,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.57421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="57.7421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.25" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.19921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.2265625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.63671875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="19.06640625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="18.69921875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="106.5546875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="19.22265625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="140.1171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="18.703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.29296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.50390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -351,321 +351,321 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="n" s="0">
         <v>1014.0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" t="n" s="0">
         <v>123.0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="n" s="0">
         <v>1015.0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n" s="0">
         <v>234.0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="n" s="0">
         <v>1016.0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n" s="0">
         <v>345.0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="n" s="0">
         <v>1017.0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n" s="0">
         <v>456.0</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="n" s="0">
         <v>1018.0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n" s="0">
         <v>567.0</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="n" s="0">
         <v>1019.0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n" s="0">
         <v>678.0</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="n" s="0">
         <v>1020.0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n" s="0">
         <v>789.0</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="n" s="0">
         <v>1021.0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n" s="0">
         <v>890.0</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="n" s="0">
         <v>1022.0</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E10" t="n" s="0">
         <v>901.0</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="n" s="0">
         <v>1023.0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E11" t="n" s="0">
         <v>1012.0</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" t="s" s="0">
         <v>69</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1025.0</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" t="n" s="0">
+        <v>2012.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" t="s" s="0">
         <v>75</v>
       </c>
     </row>

--- a/ASM_Future-Interior_Project-G2/src/main/resources/static/fileExport/baiDangs.xlsx
+++ b/ASM_Future-Interior_Project-G2/src/main/resources/static/fileExport/baiDangs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>ID BÀI ĐĂNG</t>
   </si>
@@ -121,6 +121,21 @@
   </si>
   <si>
     <t>hahahah</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/stock-photo-82445319.jpg?alt=media&amp;token=7c4a4849-109a-407a-aac7-d684dee2eb23</t>
+  </si>
+  <si>
+    <t>nlphucthnh123</t>
+  </si>
+  <si>
+    <t>bnasjdkasjdasdad</t>
+  </si>
+  <si>
+    <t>sadasdsadas</t>
   </si>
 </sst>
 </file>
@@ -185,7 +200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -196,7 +211,7 @@
     <col min="3" max="3" width="25.19921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.2265625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.640625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="148.25" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="149.34375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="18.703125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="187.015625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="255.0" customWidth="true" bestFit="true"/>
@@ -245,7 +260,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>12</v>
@@ -316,6 +331,35 @@
       </c>
       <c r="I4" t="s" s="0">
         <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>3015.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ASM_Future-Interior_Project-G2/src/main/resources/static/fileExport/baiDangs.xlsx
+++ b/ASM_Future-Interior_Project-G2/src/main/resources/static/fileExport/baiDangs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>ID BÀI ĐĂNG</t>
   </si>
@@ -41,101 +41,406 @@
     <t>NỘI DUNG</t>
   </si>
   <si>
-    <t>Hạnh phúc đến từ sự giản đơn</t>
-  </si>
-  <si>
-    <t>Make My Home Concept</t>
-  </si>
-  <si>
-    <t>2023-06-16</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/anhBaiDang.jpg?alt=media&amp;token=521da018-de76-4f6e-a74c-f2dccfdc9eae</t>
-  </si>
-  <si>
-    <t>SarahLee</t>
-  </si>
-  <si>
-    <t>Sâu thẳm trong tâm trí mỗi người, chắc hẳn đều tồn tại những mong ước thầm kín, đó là làm sao để sở hữu một chốn an yên, không gian thanh bình, đầy đủ tiện nghi cho các thành viên và cho chính bản thân.</t>
-  </si>
-  <si>
-    <t>Sâu thẳm trong tâm trí mỗi người, chắc hẳn đều tồn tại những mong ước thầm kín, đó là làm sao để sở hữu một chốn an yên, không gian thanh bình, đầy đủ tiện nghi cho các thành viên và cho chính bản thân.
-Với những đường nét vuông vức, gọn ghẽ cùng màu trắng chủ đạo, JOHY Concept góp phần cho không gian nhà ở thêm sáng sủa và đến gần nhất với phong cách tối giản hiện đại. Ngoài ra, JOHY còn sở hữu thiết kế ngăn kéo tiện lợi cho việc lưu trữ và phần tay nắm da mềm mại tạo điểm nhấn.
-Với mức chi phí vừa tầm, JOHY Concept là sự lựa chọn tuyệt vời cho những chủ nhà yêu thích sự đơn giản nhưng đầy đủ, không cầu kỳ nhưng vẫn nhẹ nhàng và tinh tế.
-“Là một người theo chủ nghĩa tối giản, mình mong muốn ngôi nhà của mình cũng thật đơn giản và thoải mái. Vì vậy mà JOHY được lựa chọn để hoàn thiện tổ ấm cho mình” - chị Hân
-Địa điểm: chung cư SAFIRA, quận 9, HCM
-Loại công trình: căn hộ 3 phòng ngủ 
-Hãy kể M.Concept nghe mong muốn của bạn về một tổ ấm lý tưởng, chúng tôi sẽ cùng bạn dựng nên một không gian tràn ngập niềm vui và hạnh phúc.</t>
-  </si>
-  <si>
-    <t>Free 3D &amp; Giảm 10% tất cả concept</t>
-  </si>
-  <si>
-    <t>Home Make My</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/baiDang02.jpg?alt=media&amp;token=eede9ac8-560b-44a0-bc3e-6af58cdd816c</t>
-  </si>
-  <si>
-    <t>Từ ngày 25/02 - 08/03, Make My Home Concept cung cấp bản thiết kế không gian 3D FREE và giảm ngay 1O% cho TẤT CẢ Concept, tiết kiệm lên đến 16 triệu đồng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M.Concept là giải pháp 7 ngày hoàn thiện không gian sống của bạn dựa trên 7 Concept chuẩn phong cách "minimalism":
-- EZ TINY Concept: chỉ từ 11 triệu đồng
-- EZ Concept:chỉ từ 20 triệu đồng
-- QUADA Concept: chỉ từ 64 triệu đồng
-- SAGO Concept: chỉ từ 56 triệu đồng
-- DALAT Concept: chỉ từ 60 triệu đồng
-- JOHY Concept: chỉ từ 45 triệu đồng
-- HANO Concept: chỉ từ 78 triệu đồng
-Sở hữu các gói nội thất từ cơ bản đến nâng cao, Nhà tạo nên không gian sống tiện nghi, thoải mái và giúp bạn thư giãn mỗi khi trở về, đừng ngần ngại liên hệ các kiến trúc sư tại Make My Home Concept.
-Thông tin về các gói Concept: https://makemyhomevn.com/blogs/concept
-Định hướng của HANO Concept là một không gian sống sang trọng và cao cấp, là vẻ đẹp độc đáo của phong cách hiện đại đắm chìm trong nét hoài cổ. 
-HANO tạo nên tổng thể khác lạ, vừa mang sắc trầm của gỗ nâu huyền bí, vừa mang sắc đen tĩnh mịch của kim loại phá vỡ sự thô cứng của hình khối. Những chất liệu cơ bản như gỗ, kính, cement và kim loại được chế tác tinh xảo và khéo léo trong từng chi tiết. Sử dụng chân sắt sơn tĩnh điện tuy nhỏ nhắn nhưng vững vàng tựa như Hà Nội qua bao mùa mưa nắng. Hano Concept dường như là tiếng rao đêm lảnh lót nhưng vang vọng của thủ đô Hà Nội.
-Điểm nhấn tạo nên nét đẹp hoàn mỹ của QUADA Concept chính là những giá trị tự nhiên từ gỗ, từ những đường cạnh vuông vắn đều mắt như muốn thốt lên rằng, bên trong vẻ bề ngoài đơn giản luôn là những điều thú vị, lôi cuốn và không ngừng khêu gợi sự cám dỗ.
-Nếu bạn là một người yêu thích không gian sống ngăn nắp và linh hoạt của Nhật Bản, QUADA Concept chính là giải pháp nội thất dành cho bạn.
-Mang trong hình hơi thở của thành phố Sài Gòn sầm uất vào náo nhiệt, SAGO Concept là sự hòa trộn mộc mạc của gỗ, vững chãi của thép, kiên cường của kính và sang trọng của da.
-SAGO Concept mang theo những đường nét chắc gọn, tối giản nhưng đạt tiêu chuẩn hoàn mỹ, thích hợp dành cho những người trẻ với tâm hồn tự do, phóng khoáng và không ngừng theo đuổi nguồn cảm hứng mới.
-Từ những đường nét thiết kế vuông vức đến tông màu trắng chủ đạo, JOHY Concept đã thành công góp phần cho không gian nhà ở thêm sáng sủa và lan tỏa phong cách tối giản xen lẫn hiện đại.
-Các sản phẩm trong bộ nội thất được chế tác tỉ mỉ từ gỗ công nghiệp MFC chất lượng cao, chống thấm và có khả năng chịu lực tốt. Hơn thế nữa, JOHY còn sở hữu thiết kế ngăn kéo tiện lợi cho việc lưu trữ và phần tay nắm da tạo cảm giác mềm mại và tinh tế. Với mức chi phí bình ổn, JOHY Concept là sự lựa chọn hoàn hảo cho những chủ nhà yêu thích sự đơn giản, không cầu kỳ nhưng vẫn đầy đủ nội thất cần thiết.
-DALAT Concept mang đến một không gian tràn ngập màu sắc tươi sáng và không kém phần êm ả tựa hồ Xuân Hương, một biểu tượng thơ mộng của thành phố sương mù Đà Lạt. 
-Các sản phẩm của DALAT Concept mang sắc trắng thanh lịch cùng sắc gỗ nhẹ nhàng, điểm xuyết với những đường cong uyển chuyển của phong cách Bắc Âu ấm áp và trong lành. Đến với DALAT Concept, bạn sẽ cảm nhận được nét dịu dàng và thuần khiết trong chính căn nhà của mình.
-Được thiết kế với mục đích mang lại giải pháp lưu trữ tối ưu nhất cho không gian nhà ở giới hạn hiện nay, EZ Concept sẽ là trợ thủ đắc lực giúp bạn sắp xếp các vật dụng theo phong cách riêng. 
-Những thiết kế đơn giản nhưng biến hoá mới lạ hơn với những chi tiết tối ưu hoá công năng, phối cùng hệ thống ngăn kệ tủ linh hoạt, từng sản phẩm của EZ Concept sẽ mang lại cảm giác tiện nghi trong phân khúc giá thấp.
-Cả bộ sưu tập EZ TINY Concept được thiết kế với triết lý tối giản kết hợp với sự đa dạng trong công năng, chú trọng gam màu trắng chủ đạo đan xen màu gỗ nhạt nhẹ nhàng đã được MAKE MY HOME xử lý khéo léo mang lại sự ấm áp cho mọi không gian từ nhỏ đến vừa. </t>
-  </si>
-  <si>
-    <t>1nG - Không Phải Yêu ft. JDEN | Prod. KayTee, VRT (Official MV)</t>
-  </si>
-  <si>
-    <t>marzuz, Gill, Onionn,Sintea</t>
-  </si>
-  <si>
-    <t>2023-06-18</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/stock-photo-77730769.jpg?alt=media&amp;token=eada6529-6080-42bf-a31a-22fc3ce4c2a8</t>
-  </si>
-  <si>
-    <t>COMPOSER &amp; PERFORMER: 1NG, JDEN MUSIC PRODUCER: KAYTEE, VRT VOCAL MIX: JOKE D INSTRUMENTAL MIX: VRT</t>
-  </si>
-  <si>
-    <t>hahahah</t>
-  </si>
-  <si>
-    <t>2023-06-19</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/stock-photo-82445319.jpg?alt=media&amp;token=7c4a4849-109a-407a-aac7-d684dee2eb23</t>
+    <t>Chiêm ngưỡng 50 mẫu kệ trang trí độc đáo không thể rời mắt.</t>
+  </si>
+  <si>
+    <t>Trần Thị B</t>
+  </si>
+  <si>
+    <t>2023-06-20</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/chiemnguong50mauketrangtridocdaokhongtheroimat.png?alt=media&amp;token=2ed6c4eb-318a-4234-9789-71b60ce0957d</t>
   </si>
   <si>
     <t>nlphucthnh123</t>
   </si>
   <si>
-    <t>bnasjdkasjdasdad</t>
-  </si>
-  <si>
-    <t>sadasdsadas</t>
+    <t>Nhiều ngôi nhà đã được thiết kế với đầy đủ khu vực. Tuy nhiên, nhu cầu bổ sung kệ luôn cần thiết cho bất kỳ không gian nội thất nào.</t>
+  </si>
+  <si>
+    <t>Trang trí bằng kệ là một cách tuyệt vời để mang lại cá tính cho ngôi nhà. Cho dù chúng được cố định vào tường hay là một phần của thiết bị, kệ trang trí vẫn là yếu tố hoàn hảo để lưu trữ, bày trí hoặc tạo điểm nhấn cho bất kỳ không gian nào.
+Kệ không chỉ là giải pháp lưu trữ thực tế, mà còn là một vật dụng trang trí đáng yêu. Là nơi để trưng bày, sáng tạo, thể hiện sở thích cá nhân, và gợi lại những kỷ niệm vui vẻ.Kệ được sử dụng với nhiều mục đích, và những không gian khác nhau. 
+Kệ trong nhà ở, căn hộ chung cư, trong cửa hàng, nơi trưng bày, v.v…Tùy vào chức năng mà kệ sẽ có những hình thức thiết kế khác nhau.
+Nhiều ngôi nhà đã được thiết kế với đầy đủ khu vực lưu trữ, như tủ kho, tủ âm tường. Tuy nhiên, nhu cầu bổ sung kệ luôn cần thiết cho bất kỳ không gian nội thất nào.Tất cả phụ thuộc vào trọng lượng đặt trên kệ.
+Các đề xuất dưới đây chỉ nhằm mục đích tham khảo. Nếu có thể, hãy lắng nghe tư vấn của nhà thiết kế.Vật liệu được sử dụng phổ biến nhất cho kệ là gỗ (gỗ tự nhiên và gỗ công nghiệp). Kệ gỗ có tính linh hoạt khi sản xuất.
+Bền đẹp, và phù hợp với mọi môi trường.Kệ cũng có thể được làm bằng thép hoặc thủy tinh, Tuy nhiên, chúng phù hợp với nội thất thiết kế theo phong cách hiện đại. Nhựa cũng là một lựa chọn thay thế rẻ hơn.
+Tuy nhiên, nên tránh đặt bất kỳ đồ vật quá nặng lên loại kệ này.Với công nghệ và máy móc hiện đại hiện nay, vật liệu làm tủ kệ không còn bị giới hạn, và đủ sức đáp ứng các ý tưởng táo bạo nhất.Là nơi hoàn hảo để thể hiện ý tưởng và sở thích cá nhân, cũng như lưu trữ những kỹ niệm đẹp. Chúng có thể hiện diện ở bất cứ không gian nội thất nào. 
+Từ phòng khách, phòng ngủ, nhà kho, v.v…Tuy nhiên, với kệ treo tường, các vật trang trí phải có kích thước và trọng lượng vừa phải.Mặc dù không có quy tắc nào cho mẫu kệ để trang trí. Thế nhưng, những vật dụng có trọng lượng nặng, kệ cần có sự chắc chắn. Do đó kệ đứng là một giải pháp hoàn hảo. Hoặc một vách ngăn nữa kín nữa mở để phân chia khu vực, 
+thì kệ đứng là một giải pháp rất hiệu quả.Kệ trang trí có đèn LedMẫu kệ trang trí có gắn đèn Led là xu hướng hiện đại và rất được ưa chuộng. Công nghệ đèn led hiện nay rất đa dạng về màu sắc. Bất kỳ mẫu kệ thẳng, cong phức tạp, đèn led vẫn đáp ứng được yêu cầu của nhà thiết kế.Kệ kết hợp tủ TiviĐối với kệ TV, hệ tủ thường là một tổ hợp của nhiều modul, 
+vừa tủ vừa kệ. Phần tủ phía dưới, phần kệ phía trên. Đó cũng là mẫu thiết kế phổ biến trong nhà phố và căn hộ. Vì hệ thống này tránh được sự cồng kềnh, cho không gian thoáng và rộng hơn.Tủ kệ là thứ không thể thiếu trong nội thất, nhất là trong phòng khách. Chúng là một ý tưởng tuyệt vời để trang trí, và tạo điểm nhấn cho bức tường. Đồng thời cung cấp thêm chổ để lưu trữ cho nhiều đồ đạc như, sách, bình hoa, đồ trang trí.
+Với những phòng khách có diện tích nhỏ, không đủ chổ cho tủ, thì kệ là giải pháp tốt nhất. Nhờ sự tự do trong bố cục, kệ có thêm diện tích để trưng bày, và nhiều ý tưởng để sáng tạo.
+Ngoài kiểu kệ treo tường, những mẫu thiết kế kệ âm vào tường cũng là một giải pháp hoàn hảo cho phòng khách. Ưu điểm của kệ âm hốc tường là chịu được trọng lượng lớn. Nhược điểm là độ sâu kệ không lớn, do phụ thuộc vào độ dày của tường.
+Kệ âm hốc tường là cách đơn giản nhưng hiệu quả cao, chi phí thấp. Tuy nhiên, kiểu kệ âm tường không linh hoạt, và thường phải được hoàn thiện cùng với quá trình cải tạo, xây dựng.Kệ trang trí phòng ngủ. Phòng tắm là nơi có rất nhiều thứ để lưu trữ. Riêng các loại mỹ phẩm, dầu gội, dưỡng thể đã có rất nhiều bình, chai lọ với đủ loại khác nhau. Do đó, bất kỳ bổ sung kệ nào cho phòng tắm, suy nghĩ đầu tiên phải là tính thực tế.
+Hãy cân nhắc xem bạn muốn sử dụng chúng như thế nào, bạn sẽ để cái gì trong phòng tắm? Bởi điều này quyết định kích thước, kiểu dáng kệ trong phòng tắm. Lời khuyên là nên dùng những vật liệu chống ẩm. Ví dụ như đá, kính, gỗ gốc nhựa.Tất nhiên, kệ không chỉ giới hạn ở phòng khách. Kệ trong phòng ngủ có thể là một cách tuyệt vời để trưng bày những món đồ riêng tư, kết hợp giữa các khung ảnh với bình hoa, cây xanh, v.v…
+Lưy ý là không nên lắp đặt kệ ngay phía trên đầu giường, nơi các vật dụng có thể rơi xuống bất kỳ lúc nào. Thay vào đó, hãy đặt kệ ở bất kỳ vị trí nào, nơi mà bạn thấy cần thiết để trang trí, và đủ sức sự hấp dẫn về mặt thị giác. Kệ là một cách tuyệt vời để tăng diện tích cho không gian lưu trữ. Nếu diệ tích bếp nhỏ,
+việc lắp đặt các kệ treo tường có thể mở rộng không gian của bạn, và cho phép bạn trưng bày các dụng cụ yêu thích của mình. Một ưu điểm khác của kệ nhà bếp là bạn không cần phải lục tung mọi thứ để tìm đồ. Quy hoạch nhà kho một cách ngăn nắp, ngoài tủ, chắc chắn không thể bổ sung thêm hệ thống kệ treo tường
+. Đừng nghĩ rằng, kệ cho nhà kho là nhàm chán. Ngược lại, chúng là một trong những yếu tố thú vị, đòi hỏi tính tổ chức khoa học và linh hoạt nhất có thể.Rất khó để đề xuất một kích thước chính xác. Tùy theo mục đích sử dụng, trọng lượng đặt trên kệ mà kích thước kệ sẽ khác nhau. Chiều dài kệ có thể không giới hạn. Nhưng chiều sâu sẽ có một số yêu cầu chung.Các kệ treo tường hiện đại không chú trọng nhiều hình thức. 
+Hãy giữ mọi thứ thật đơn giản. Chức năng lưu trữ và trưng bày là mới là yếu tố chính. Bố trí kệ với vị trí bất đối xứng, tự do. Sắp xếp kệ theo chủ đề hoặc màu sắc, tỷ lệ cũng là một hình thái nghệ thuật của những mẫu kệ hiện đại.
+Với kiểu kệ phong cách cổ điển, hình thức luôn đi cùng chức năng. Hoàn thiện tinh xảo. Không chấp nhận những vật liệu rẻ tiền. Các đường viền, phào chỉ, hoặc hoa văn là yếu tố tô điểm rất bắt mắt. Cách bố trí kệ trong không gian cổ điển thường rất đối xứng. Chú trọng về tỷ lệ và sự cân bằng, và thống nhất trong ngôn ngữ thiết kế.</t>
+  </si>
+  <si>
+    <t>Khám phá phong cách indochine độc đáo và chi tiết nhất</t>
+  </si>
+  <si>
+    <t>Trần Thị C</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/khamphaphongcanhindochinedocdaovachitietnhat.png?alt=media&amp;token=c8314d1b-b1d6-4e9e-864e-6bda411b3852</t>
+  </si>
+  <si>
+    <t>Sự kết hợp giữa phong cách Việt Nam và Pháp được gọi là indochine, di sản nghệ thuật của người Pháp, được hình thành trong quá trình mở rộng thuộc địa ở một số nước châu Á.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sự kết hợp giữa phong cách Việt Nam và Pháp được gọi là indochine. Phong cách indochine là di sản nghệ thuật của người Pháp, được hình thành trong quá trình mở rộng thuộc địa ở một số nước châu Á. Tuy nhiên indochine tại Việt Nam đặc biệt phát triển, trong khi Campuchia ít được quan tâm. Và Lào, phần lớn bị bỏ quên.
+Phong cách này phát triển từ năm 1920 đến 1950. Trong số đó, có thể kể đến kiến trúc sư Pháp Ernest Hébrard, người đã thiết kế nhiều công trình đặc trưng của phong cách này tại Việt Nam, và các nước Đông Nam Á. Pháp thuộc địa hóa Việt Nam vào những năm 1880. Do đó, Việt Nam chịu ảnh hưởng của Pháp trong nhiều khía cạnh. Bao gồm nghệ thuật, kiến trúc, thời trang và ẩm thực.
+Đồng thời, người Pháp cũng đã thực hiện một số thay đổi quan trọng về kinh tế, xã hội và ngôn ngữ. Giống như cách họ đã thực hiện với các thuộc địa khác trên thế giới.Nổi bật nhất về ảnh hưởng của Pháp là Nhà hát lớn Hà Nội. Khách sạn Sofitel Metropole Legend Hanoi cũng là một ví dụ khác về phong cách thuộc địa Pháp.
+Ngay sau khi Việt Nam giành được độc lập, những ảnh hưởng đó vẫn còn. Bằng chứng là các di sản văn hóa kiến trúc phong cách indochine vẫn còn tồn tại đến ngày nay. Từ miền Bắc, miền Trung, cho đến miền Nam. Sau Cách mạng Pháp, ở Pháp xuất hiện niềm tin rằng, sứ mệnh của họ là truyền bá văn hóa và văn minh Pháp, biến dân cư của các thuộc địa thành người Pháp. Vậy, dễ hiểu vì sao phong cách indochine chịu ảnh hưởng nhiều từ văn hóa Pháp.
+Ảnh hưởng của Pháp thể hiện rõ nhất trong kiến trúc. Đặc biệt là thủ đô Hà Nội. Những đại lộ lớn, rợp bóng cây, được thiết kế giống những đại lộ ở Paris. Các biệt thự theo phong cách châu Âu khác nhau nằm dọc các con phố trong Khu phố Pháp.Thành phố Hồ Chí Minh đã trải qua một sự thay đổi mạnh mẽ trong những năm gần đây. Nhiều tòa nhà hiện đại mang dáng dấp kiến trúc Pháp. Trong đó, không thể không kể đến khách sạn Park Hyatt Saigon (xây dựng năm 2005).
+Tp. Huế là một trong những thành phố có kiến trúc Indochine đẹp nhất Việt Nam, nơi lưu giữ những di sản văn hóa, kiến trúc của thời kỳ đó. Điển hình như, nhà máy bia Tiger, ga Đông Ba, nhà thờ Con Gà, khách sạn Morin. Những tòa nhà này có điểm chung là kết hợp giữa hai phong cách kiến trúc Đông – Tây, mang một vẻ đẹp độc đáo.
+Các tòa nhà kiến trúc Indochine ở Huế đóng vai trò quan trọng trong việc bảo tồn và phát triển văn hóa và du lịch ở địa phương. Thu hút đông đảo du khách đến tham quan và tìm hiểu về lịch sử, văn hóa.Ngoài ra, Tòa thị chính thành phố, được người Pháp xây dựng vào năm 1908 và vẫn được sử dụng làm UBNN Thành Phố. Nhà thờ Đức Bà (được xây dựng vào cuối những năm 1800) và Nhà hát Lớn (hoàn thành năm 1897).
+Công trình kiến trúc đáng chú ý nhất gồm, La Residence Hue Hotel &amp; Spa, một kiệt tác Art Deco được xây dựng làm nhà khách cho Toàn quyền Đông Dương. Và Le Cercle Sportif, một tòa nhà theo phong cách Art Moderne, được dùng làm câu lạc bộ cho giới thượng lưu thuộc địa.Một địa danh khác là Bưu điện Trung tâm Sài Gòn, được thiết kế bởi Gustave Eiffel, với mái vòm và cửa sổ hình vòm, gợi nhớ đến những nhà ga đường sắt lớn của châu Âu.
+Di sản kiến trúc Indochine mang giá trị lịch sử đặc biệt, tượng trưng cho thời kỳ thuộc địa Pháp ở Đông Dương. Là một phần không thể thiếu trong việc bảo tồn và phát triển.Nghệ thuật kiến trúc được thể hiện cụ thể ở các yếu tố mặt bằng, kết cấu kiến trúc. Nổi bật nhất là hệ thống các biểu tượng, mô típ trang trí đặc trưng của triết học Á Đông.Công trình mang tính hoành tráng. Có khả năng biểu đạt nhiều cung bậc cảm xúcHình khối
+và trang trí mang đậm tính cổ điển. Có giá trị không chỉ về mặt kiến trúc mà còn về mặt lịch sử, văn hoá.Mặt đứng tuân thủ tính đối xứng nghiêm ngặt, cũng như nguyên tắc tổ chức đặc, rỗng.Mái ngói bằng hoặc dốc. Mục đích giảm bức xạ, chống nắng nóng..Mái ngói có nhiều lớp. Các góc của mái nhà được uốn cong, được trang trí bằng các phù điêu.Cây xanh có mối liên hệ chặt chẽ với công trình kiến trúc. Các khu vườn nhỏ hay sân thượng được sử dụng để làm dịu mát không khí.Các hồ nước
+, cảnh quan thiên nhiên được khai thác gắn liền với công trìnhKết cấu chịu lực chính là tường xây gạch, đá. Sử dụng vòm cuốn gạch với những kiểu khác nhau.Mái nhà thường làm đua ra để chống hắt (mưa), nhưng vẫn đảm bảo lấy sáng.Dùng đá làm móng, với đế móng rất rộng, nhằm cách ẩm cho tường móng.Thông gió tự nhiên bằng sự trao đổi không khí liên tục giữa các phòng. Quá trính này được thực hiện bằng giải pháp kiến trúc.Điều thú vị là phong cách indochine,
+ngoài tính thẩm mỹ, còn phù hợp với tập quán sinh hoạt và khí hậu nhiệt đới, nóng ẩm ở Việt Nam. Bố cục đối xứng, nhấn mạnh trung tâm của không gian.Tổ hợp các thức cột nghiêm ngặt, sử dụng nhiều họa tiết trang trí và điêu khắc.Cửa sổ mái là một đặc trưng mang tính khác biệt của phong cách indochine. Nhằm làm thông thoáng khí nóng cho tầng áp mái.Những bức mành tre hay rèm vải cho những ô cửa.Cửa sổ lớn, được thiết kế để tận dụng tối đa ánh sáng và gió tự nhiên.
+Cửa thường có màu vàng, trắng, xanh.Hệ thống cửa 2 lớp, cửa chớp (trong kính ngoài chớp). Vòm cửa cong, được trang trí gờ phào chỉ.Chú trọng trần, tường, sàn, không gian khánh tiết, sảnh đón, sảnh đệm.Tường dày, cho cảm giác mát mẻ vào mùa hè, và ấm áp vào mùa đông.Nền cao, làm bằng gạch, hoàn thiện gạch hoa (gạch bông) kiểu PhápKhoảng đệm giữa các không gian (ban công, hiên, lozia…) nhằm điều tiết không khí với môi trương xung quanh 
+Màu sắc phong cách Indochine bao gồm: đỏ, vàng, cam, xanh lá cây, xanh navy, trắng và đen. Màu nhấn là những gam màu ấm nóng, đầy sức sống của xứ nhiệt đới, như màu vàng cam, màu đỏ, màu tím… Màu sắc phong cách Indochine bao gồm: đỏ, vàng, cam, xanh lá cây, xanh navy, trắng và đen. Màu nhấn là những gam màu ấm nóng, đầy sức sống của xứ nhiệt đới, như màu vàng cam, màu đỏ, màu tím…Sự kết hợp này mang đến cảm giác tươi mới và khơi nguồn năng lượng tuyệt vời
+.Kết hợp các vật liệu tự nhiên như gỗ, tre, mây và lụa. Những vật liệu này giúp tạo cảm giác ấm áp và kết cấu, đồng thời mang lại cảm giác tự nhiên vào không gian.Dệt là một trong nhữngthủ công lâu đời nhất ở Việt Nam. Vật liệu này thường được kết hợp với các vật liệu khác như da hoặc gỗ.Những chiếc rèm cửa được chọn thường có họa tiết đơn giản, màu sắc trung tính như trắng, be, xám, nâu.
+Sàn được làm từ các loại gỗ có xuất xứ từ khu vực Đông Dương như gỗ Teak, Sồi, Hương, gỗ Lim, Căm xe.Gỗ thường có màu sắc đậm, vân gỗ rõ nét, có độ bền cao và đặc tính chống mối mọt tốt.  Phù hợp với phong cách kiến trúc Pháp.Gạch bông lát sàn là một đặc trưng của Indochine. Chúng thường được làm từ đất nung, được trang trí bằng các hoa văn dạng hình học.
+Đa số gạch có màu xanh lá cây, màu đen, trắng hoặc màu đỏ. Tường thường được làm bằng các vật liệu tự nhiên (đá, gạch, hoặc gỗ) Sơn tường thường có màu sắc ấm áp, tạo cảm giác gần gũi và ấm cúng.Các chi tiết trang trí phức tạp bị loại bỏ. Hoa văn Á Đông cách điệu đã thay thế các chi tiết trang trí Châu Âu. Một số họa tiết phổ biến phong cách Indochine:
+Hoa văn được thiết kế từ những hình ảnh thiên nhiên như hoa, lá, chim và cá. Hoa văn thường được khắc hoặc in lụa trên các bề mặt gỗ hoặc đá.Tinh tú: là một loại họa tiết trang trí được làm từ gỗ, sừng, đá, sứ, đồng và các vật liệu khác. Tinh tú thường được dùng để trang trí trong nhà, tạo nên một diện mạo sang trọng và độc đáo.
+Khắc trang trí: đây là một loại họa tiết trang trí được khắc trên các bề mặt gỗ hoặc đá bằng tay. Các khắc trang trí thường được thiết kế với các họa tiết như ngựa, rồng, hoa văn và chữ Hán.Trang trí trên mọi bộ phận của công trình. Ngoài các đề tài truyền thống, còn có các đề tài từ Phương Tây. Màu sắc đa dạng, rực rỡ.
+Nón lá: là một trong những biểu tượng của văn hóa Việt Nam và thường được sử dụng làm phụ kiện trang trí trong phong cách Indochine. Những chiếc nón lá được treo lên tường hay trần nhà có thể tạo ra một không gian độc đáo và gần gũi với thiên nhiên.Sự kết hợp này mang đến cảm giác tươi mới và khơi nguồn năng lượng tuyệt vời.Rèm cửa: là một phụ kiện trang trí quan trọng trong phong cách Indochine. </t>
+  </si>
+  <si>
+    <t>Phong cách Zen là gì? khám phá thiết kế nội thất Zen Nhật Bản</t>
+  </si>
+  <si>
+    <t>Trần Thị E</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/phongcachzenlagikhamphathietkenoithatzennhatban.png?alt=media&amp;token=c39a1912-fefe-45a6-8fff-ba913a19b900</t>
+  </si>
+  <si>
+    <t>Zen (Thiền) có một lịch sử lâu đời và có nhiều cách diễn giải. Về cơ bảnZen là sự hợp nhất giữa tâm trí và cơ thể, là trạng thái thiền định.</t>
+  </si>
+  <si>
+    <t>Zen (Thiền) có một lịch sử lâu đời và có nhiều cách diễn giải. Về cơ bản, Zen là sự hợp nhất giữa tâm trí và cơ thể, là “trạng thái thiền định”. Giúp cơ thể thư giãn, giải phóng căng thẳng và đi vào trạng thái phục hồi. Phong cách Zen đề cao mối liên hệ giữa con người với thiên nhiên, dù không có một quy tắc cứng nhắc nào. “Zen” là một trong những trường phái Phật giáo. 
+Người ta tin rằng Thiền đã được Bồ Đề Đạt Ma truyền từ Ấn Độ sang Trung Quốc trong thế kỷ thứ 5 hoặc thứ 6. Sau đó được du nhập vào Nhật Bản vào khoảng thế kỷ 11~13. Nên, có thể nói, Zen được chắt lọc từ ba nền văn hóa: Ấn Độ, Trung Quốc và Nhật Bản.Trọng tâm của Zen là mang lại sự cân bằng, tĩnh lặng cho ngôi nhà. Ý tưởng đằng sau phong cách này là biến ngôi nhà của bạn thành chốn bình yên trong cuộc sống hối hả này.
+Cửa sổ lớn (Shoji) – Một kiểu vách ngăn được làm bằng gỗ và giấy. Không gian mở, ít đồ đạc, nhưng nhiều ánh sáng tự nhiên.Sử dụng nhiều cây xanh, sỏi đá, và Bonsai. Đây là một hình thức mang thế giới tự nhiên thu nhỏ vào nhà.Sử dụng chiếu Tatami để lót sàn.Sử dụng nhiều vật liệu tự nhiên. Ưu tiên đồ từ thủ công, như gỗ, gốm, mây tre, vải thô.Sử dụng các kỹ thuật DIY (tự làm).
+Sử dụng đồ nội thất có trọng tâm thấp. Tối giản đồ đạc để giữ cho ngôi nhà luôn sạch sẽ và ngăn nắp.Văn hóa Nhật Bản bày tỏ sự tôn kính đối với các truyền thống cổ xưa. Nếu bạn đã từng nghe đến phong cách Wabi-Sabi, thì đây cũng là một khái niệm trong triết học Zen. Nơi người ta phải học cách chấp nhận quy luật của tự nhiên.
+Tâm trí khó có thể nghỉ ngơi trong một môi trường bừa bộn. Do đó, đồ nội thất phong cách Zen cũng tối giản tương tự như phong cách Minimalist.Khu vực trà đạo hoặc vườn khô để dẫn dắt cảm giác Thiền vào tâm thức mọi người.
+Khi nghĩ về phong cách nội thất Zen, những hình ảnh nào xảy ra trong tâm trí bạn? Bạn có thể tưởng tượng ra một khu vườn khô với cát và sỏi. Hoặc một giọt nước rơi xuống từ một ống tre bên một chậu đá, v.v…
+Những hình ảnh như vậy có vẻ đậm chất Zen, và ảnh hưởng sâu sắc đến các nền nghệ thuật khác của Nhật Bản. Như nghệ thuật trà đạo, thư pháp, kiến trúc và nội thất.Một ngôi nhà kiểu Nhật Bản luôn có không gian rộng mở, ngay cả khi ngôi nhà có diện tích nhỏ. Đó là nghệ thuật tài tình của các nhà thiết kế nội thất Nhật Bản.
+Các vật dụng và nội thất trong phòng đều có mục đích và vị trí hoàn hảo. Có nghĩa là tất cả các vật dụng đã được tiết giản để giải phóng năng lượng. Bởi năng lượng chỉ tốt khi được luôn chuyển từ phòng này sang phòng khác. Điều này giúp mang lại sức khỏe và tinh thần tốt hơn.
+Người Nhật rất giỏi trong việc kết hợp các yếu tố tự nhiên với chủ nghĩa hiện đại. Bởi chúng mang lại cảm giác yên bình và tĩnh lặng đặc biệt cho bất kỳ ngôi nhà nào.
+Giếng trời, cửa sổ lớn sẽ mang lại nhiều ánh sáng tự nhiên hơn. Tất nhiên, không thể thiếu cây xanh như cây Bonsai, dương xỉ, v.v…Ngoài ra, Bạn cũng có thể sử dụng cách cắm hoa theo phong cách Nhật Bản, còn được gọi là nghệ thuật Ikebana, để căn phòng thêm sinh động.
+Bảng màu ưa thích của thiết kế Zen là màu trung tính và tự nhiên. Các tông màu tự nhiên, bao gồm màu be, nâu đất, xanh dương và xanh lục. Những màu này nâng cao cảm giác yên bình và kết nối với thế giới xung quanh.
+Màu xám nhạt của đá, màu xanh nhạt của bầu trời, màu xanh của thực vật, và của bãi biển đầy cát…là những màu tuyệt vời để xem xét. Một bảng màu lạnh có thể giúp căn phòng cảm thấy tĩnh lặng. Các màu ấm cho cảm giác thanh bình, và màu trung tính tạo bầu không khí dễ chịu.Người Nhật sử dụng cửa lùa (trượt) để tiết kiệm diện tích &amp; tránh cản trở lối đi. 
+Hoặc để phân chia không gian một cách linh hoạt. Khi cần thiết, có thể tháo rời và cất gọn giúp mở rộng không gian. Đồng thời để giữ cho ngôi nhà luôn ngập tràn ánh sáng tự nhiên.
+Theo thời gian, những cánh cửa lùa đã được thay thế bằng những tấm kính trông hiện đại hơn. Nhưng không thể phủ nhận rằng, cửa lùa shoji kiểu Nhật Bản vẫn có một chất riêng khó nhầm lẫn.Vì kiến trúc và thiết kế nội thất phong cách Zen Nhật Bản chủ yếu tập trung vào thế giới tự nhiên, nên hãy sử dụng nhiều các vật liệu tự nhiên. Điển hình như, chiếu Tatami, cửa ra vào và cửa sổ, vách ngăn,
+Vải, giấy dán tường hoặc thảm và thảm có hoa văn nặng nề hoàn toàn không phù hợp với phong cách này. Một lần nữa, hãy nghĩ đơn giản và đơn giản.và rèm làm từ giấy. Do đó rất nhẹ và linh hoạt.
+Ở Nhật Bản, dù là biệt thự hay căn hộ chưng cư, thì hầu hết người Nhật đều trang bị khu vực đón khách, gọi là “Genkan”. Genkan giống như tiền sảnh, là nơi gia chủ chào đón khách, nhưng được trang trí rất đặc trưng trong văn hóa Nhật Bản. Tuy nhiên, khác với tiền sảnh thông thường, trong quan niệm của người Nhật, Genkan còn mang nhiều ý nghĩa văn hóa khác nữa.
+Dù tự nhiên hay nhân tạo, ánh sáng là một thành phần quan trọng đối với một thiết kế Zen. Thiết kế Zen chủ yếu sử dụng ánh sáng nhẹ hoặc tự nhiên để tạo cảm giác thư thái. Đây là lúc đèn sàn, nến thơm có thể phát huy tác dụng.
+Tránh sử dụng ánh sáng quá gay gắt. Thay vào đó, sử dụng các nguồn sáng dán tiếp để làm dịu nhẹ các giác quan. Tránh xa những ánh đèn có cường độ mạnh chiếu từ trần xuống.Bước vào ngôi nhà phong cách Nhật bạn sẽ ngạc nhiên bởi hương thơm nhẹ lan tỏa. Một bộ ấm trà đơn giản, có thể là một bổ sung tuyệt vời cho phong cách Zen cả về mùi hương lẫn trang trí.
+Tinh dầu cũng là cách tuyệt vời để giúp thư giãn và xả stress, đặc biệt là các loại tinh dầu tự nhiên chiết xuất từ hoa, vỏ cây…để cân bằng, và thúc đẩy sức khỏe cũng như tâm trí. Âm nhạc có thể làm giảm bớt lo lắng, giúp bạn kiểm soát căng thẳng và thậm chí là thể xác. Nếu âm nhạc là thứ bất biến trong cuộc sống, thì việc khai thác nó trong phòng thiền có thể mang lại lợi ích lâu dài.Điểm quan trọng khi kết hợp
+thiết kế nội thất Zen Nhật Bản là giữ cho mọi thứ đơn giản và đơn giản. Kết hợp chủ nghĩa tối giản với phong cách Scandinavian &amp; Wabi-Sabi để mọi thứ trông tuyệt vời hơn.Như đã nói ở phần trước, người Nhật Bản thích sử dụng sàn nhà hơn là những chiếc ghế. Bạn có thể đưa ý tưởng này vào thiết kế của mình.
+Để kết hợp vào trong một khung cảnh hiện đại, bạn có thể sử dụng thiết kế đồ nội thất cho phép người dùng điều chỉnh độ cao. Khi tiếp khách theo phong cách Nhật Bản, bạn chỉ cần điều chỉnh cao thấp, và ngồi trên sàn như kiểu truyền thống. Thậm chí có thể có một buổi trà đạo đúng nghĩa.Theo truyền thống, vườn khô Nhật Bản không dành cho dã ngoại. Đó như là một nơi thiêng liêng để thực hành thiền, chiêm ngưỡng và tìm
+Ngoài cây cối, bạn có thể sử dụng cát, sỏi nhỏ hoặc đá cuội. Nước thúc đẩy cảm giác yên bình với âm thanh dễ chịu. Một khu vườn là yếu tố không thể thiếu. Vườn Thiền được thực hiện với cát, sỏi và những chiếc cào. Những đường kẻ đặc trưng là một cách để thực hành chánh niệm.Đây là không gian có nhiều ý tưởng để sáng tạo. Một phòng khách lấy cảm hứng từ Zen sẽ mang lại cảm giác đặc biệt yên bình. Tuy có điểm tương đồng
+với thiết kế tối giản Minimalist, nhưng không thể phủ nhận rằng phong cách Zen rất được chào đón.Để thiết kế phòng ngủ Zen, hãy sử dụng màu sắc tự nhiên để giúp căn phòng có cảm giác êm dịu. Loại bỏ sự lộn xộn, đồ đạc tối thiểu nhất có thể. Tích hợp các yếu tố cây xanh, vật liệu hữu cơ, ánh sáng tự nhiên, và mùi hương thiên nhiên dễ chịu.Với Zen, tắm không đơn giản chỉ là vệ sinh cơ thể, mà còn mang đến sự thư giãn chokiếm sự tự do của tâm trí
+tất cả các giác quan. Phòng tắm phong cách Zen, có bồn tắm thường làm bằng vật liệu tự nhiên gọi là Ofuro. Những bồn này được làm từ đá hoặc gỗ Hinoki rất bền và chắc.Khái niệm này dần dần được tích hợp vào không gian sống, được truyền tải qua những cảm xúc gắn liền với triết lý Zen.Đưa yếu tố Zen vào ngôi nhà, giúp tạo ra một môi trường yên bình, thư thái. Giảm bớt những căng thẳng và áp lực của cuộc sống. Tăng cường sức khỏe, thậm chí kéo dài tuổi thọ.
+Thẩm mỹ Zen của Nhật Bản đã tồn tại qua nhiều thế kỷ và tiếp tục ảnh hưởng đến kiến ​​trúc hiện đại. Mặc dù những cấu trúc hiện đại thường thiếu các yếu tố của một ngôi nhà truyền thống, nhưng chúng cho cảm giác đồng nhất &amp; đường nét rõ ràng.Đã có thời, mọi người cho rằng việc mua những đồ nội thất đắt tiền khiến ngôi nhà trông đẹp hơn. Tuy nhiên, thời gian trôi qua, mọi người đã hiểu được ý nghĩa của sự tối giản là gì.
+Trên là một số cách mà bạn có thể kết hợp yếu tố Zen vào thiết kế nội thất hiện đại. Hãy cân nhắc sử dụng chúng một cách có chọn lọc trong thiết kế của bạn.</t>
+  </si>
+  <si>
+    <t>Hướng dẫn cách treo gương trang trí đẹp và đúng phong thủy</t>
+  </si>
+  <si>
+    <t>Trần Thị q</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/huongdancachtreoguongtrangtridepvadungphongthuy.png?alt=media&amp;token=9b7fbc8d-5a5d-4913-a663-aadbbced0f3e</t>
+  </si>
+  <si>
+    <t>Gương có thể dùng để trang trí, nhưng cũng vô cùng mạnh mẽ để cải thiện phong thủy trong nhà. Nếu treo gương đúng cách, sẽ mang đến tài lộc cho thân chủ, và ngược lại.</t>
+  </si>
+  <si>
+    <t>Gương có thể dùng để trang trí, nhưng cũng vô cùng mạnh mẽ để cải thiện phong thủy trong nhà. Nếu treo gương đúng cách, sẽ mang đến tài lộc cho thân chủ, và ngược lại. Ngược lại, nếu treo sai cách, năng lượng sẽ bị mắc kẹt, hay tù đọng, gây tác dụng tiêu cực. Mỗi hoàn cảnh đều có các quy tắc treo gương riêng.
+Tránh bất kỳ chiếc gương cũ hoặc gương đã qua sử dụng, vì chúng có thể mang năng lượng từ người chủ trước đó.Đảm bảo rằng gương có kích thước phù hợp với không gian.
+Hãy tự thưởng cho mình chiếc gương chất lượng tốt nhất có thể.Gương có thể dùng để trang trí trong nhà, cũng có thể được sử dụng như vật hỗ trợ phong thủy để dịch chuyển những dòng khí tốt. Thậm chí làm chệch hướng các nguồn năng lượng tiêu cực, nếu biết treo và dùng gương đúng cách.
+Dưới đây là những lưu ý quan trọng khi treo gương cho bất kỳ căn phòng nào:Phòng tắm nơi rất riêng tư. Nếu đặt gương không khéo trong phòng tắm, sẽ rất dễ phơi bày sự riêng tư cá nhân. Khiến họ cảm thấy khó chịu và bất nhã, không thoải mái. Do đó nên khéo léo khi bố trí gương trong phòng tắm hoặc nhà vệ sinh.Mặc dù gương là một phụ kiện trong phòng ngủ khá phổ biến, nhưng treo gương trong phòng ngủ cũng là một thách thức lớn. Và đây, những quy tắc 
+về cách treo trong phòng ngủ, có thể rất hữu ích cho ban:Có một số trường phái phong thủy khuyên không nên đặt gương đối diện với giường. Điều này xuất phát từ ý tưởng rằng trong khi bạn đang ngủ, linh hồn của bạn có thể rời khỏi cơ thể. Ở trạng thái này, linh hồn có thể bối rối không biết nên trở lại cơ thể của bạn hay hình bóng trong gương.
+Để làm dịu năng lượng tiêu cực của chiếc gương treo đối diện với giường, hãy che nó bằng một tấm vải. Hoặc di chuyển nó đến một vị trí khác trong phòng nếu có thể.Một chiếc gương đối diện với cửa phòng ngủ (hoặc bất kỳ cánh cửa nào), đều có nguy cơ thu hút hoặc đẩy dòng khí (tốt hoặc xấu) ra khỏi phòng. Biện pháp khắc phục duy nhất cho tình huống này là di dời gương ra khỏi vị trí đó. Hoặc một chiếc gương lật, gương có bản lề để mở lúc cần thiết.
+Việc treo một chiếc gương phía trên đầu giường là tuyệt đối không nên. Sự hiện diện của một tấm gương (hoặc tác phẩm nghệ thuật) phía trên đầu giường sẽ tạo ra năng lượng tiêu cực. Bởi nó có thể truyền năng lượng đến bạn quá nhanh, đến mức có thể làm gián đoạn giấc ngủ ngon của bạn. Đó là chưa kể đến việc mất an toàn.
+Gương rất hữu ích trong việc chế ngự, hoặc tăng cường dòng “Khí” luân chuyển. Tùy loại cầu thang, mà việc truyền tải sẽ nhanh hoặc bị gián đoạn. Mục đích treo gương cho cầu thang là để tạo khoảng đệm, định hướng dòng khí lên và xuống cầu thang.Gương trên tường cầu thang sẽ là rất tốt, đặc biệt là khi chúng đủ cao. Gương treo trên tường ở cầu thang có thể làm dịu lại sự luôn chuyển quá nhanh của dòng “Khí” tốt lên phía trên.
+Khi treo gương trang trí ở đầu cầu thang, có thể bạn đang gửi ngược dòng năng lượng xuống tầng dưới. Điều này tạo ra sự trì trệ cho tầng trên. Nếu bạn muốn có một chiếc gương ở đầu cầu thang, hãy đảm bảo gương không đối diện với cầu thang, mà đặt trên bức tường liền kề.
+Không phải vị trí nào ở cầu thang cũng có thể đặt gương được. Một chiếc gương soi toàn thân ở chiếu nghỉ, đối diện với khu vực trên lầu là một lựa chọn tuyệt vời. Nếu cầu thang có nhiều chiếu nghỉ, hãy đặt một chiếc gương soi toàn thân trên chiếu nghỉ đầu tiên, hướng nó về chiếu nghỉ ở tầng trên.Treo Gương ở phòng ăn đặc biệt tốt cho phong thủy. Hình ảnh phản chiếu những người ăn uống vui vẻ, giúp tăng cường sự may mắn và sung túc
+. Hãy chắc chắn rằng bạn đặt gương ở nơi nó không phản chiếu cửa trước, nhà bếp.Gương thường không được khuyến khích sử dụng trong nhà bếp, vì chúng có thể làm tăng năng lượng nhiệt (Lửa). Một ngoại lệ là, khi bếp của bạn quay lưng với lối vào, và không thể quan sát ai đó. Một tấm gương nhỏ có thể khắc phục tình trạng này.
+Gương được coi là một tài sản cho phong thủy phòng khách, với rất ít quy tắc. Cũng như các không gian khác, tránh đặt một tấm gương phản chiếu trực tiếp cửa ra vào chính. Nếu bếp của bạn đối diện trực tiếp với phòng khách, hãy đảm bảo rằng gương không phản chiếu khu vực nấu ăn.
+Nếu cách bố trí phòng làm việc của bạn không ở vị trí lý tưởng. Một chiếc gương nhỏ có thể giúp bạn quan sát ai ra vào. Tuyệt đối không bao giờ đặt gương đối diện với cửa ra vào phòng làm việc của bạn. Vì điều này sẽ đẩy tất cả năng lượng tốt ra khỏi phòng của bạn, trước khi nó có thể đi vào.Phòng tắm là khu vực có nhiều nước thải. Nếu treo gương không đúng cách, bạn có thể kích hoạt năng lượng tiêu cực.
+Một chiếc gương soi toàn thân có thể được gắn vào sau cửa phòng tắm để đẩy đi năng lượng tiêu cực. Nhưng hãy chắc chắn rằng gương không phản chiếu nơi vệ sinh hoặc cắt ngang tầm nhìn của người dùng.Gương là một phụ kiện trang trí, đồng thời cũng có thể tăng cường phong thủy cho ngôi nhà bạn. Tuy nhiên, gương bát quái là một loại gương không cần thiết cho hầu hết việc trang trí.
+Một chiếc gương được đặt ở tiền sảnh hoặc lối vào nhà, có thể mang lại phong thủy tốt. Nhưng một số trường hợp có tác dụng ngược lại. Nên việc đặt gương ở tiền sảnh đúng cách rất quan trọng. Tránh đặt gương đối diện với cửa chính, vì chúng sẽ làm chệch hướng dòng “Khí”, khiến nó không bao giờ đến được bên trong nhà.
+Khi gương của bạn đối diện với cửa sổ, bạn có cơ hội tăng cường phong thủy tốt, nếu đó là khung cảnh đẹp. Nếu gương phản chiếu phong cảnh đẹp đẽ, nó sẽ mang lại khí tôt cho ngôi nhà của bạn. Ngược lại, nếu khung cảnh không hấp dẫn, hãy tìm cách đặt gương sao cho chúng khuếch tán các năng lượng tiêu cực ra ngoài.
+Gương có thể kích hoạt dòng khí tích cực khi được đặt ở cuối hành lang. Bạn cũng có thể thêm gương dọc theo hành lang dài để làm chậm năng lượng và tăng cường ánh sáng. Hãy chắc chắn rằng các tấm gương ở cả hai bên tường đều được bố trí xen kẽ để giữ cho khí không bị dội ngược lại, tạo ra sự hỗn loạn.
+Nếu gương ốp trên trần nhà, thì những người phía dưới sẽ bị hao khí tiêu tài, bất lợi cho tài vận và sức khỏe. Gương không nên gắn lên trần của phòng khách, vì điều này cũng khiến người bên dưới cảm thấy không tự nhiên &amp; thoải mái.
+Đặt một chiếc gương đối diện với cửa ra vào có thể khiến Khí tốt không vào được trong nhà. Hoặc khiến nó di chuyển trong một vòng lặp vô tận vào một phòng khác. Đây là vị trí đặt gương nên tránh.Treo Gương trong nhà không đúng cách, có thể phá vỡ năng lượng tích cực. Giống như ánh sáng mặt trời chiếu vào gương, bật ra khỏi bề mặt, phản chiếu và tạo ra sự tàn phá bằng cách tán xạ khắp nơi trong nhà bạn.
+Nếu bạn cảm thấy bối rối trước những lời khuyên mâu thuẫn, điều tốt nhất nên làm là tìm một nhà phong thủy mà bạn tin tưởng, và xin ý kiến chuyên 
+môn của họ.Mỗi trường phái phong thủy có một khuyến nghị về cách đặt gương khác nhau. Không có một quy tắc nào cả. Do đó, chúng tôi khuyên bạn nên làm theo những gì trực giác bạn cho là tốt nhất.</t>
+  </si>
+  <si>
+    <t>Bí ẩn phong cách Wabi Sabi vẻ đẹp nguyên bản in dấu thời gian</t>
+  </si>
+  <si>
+    <t>Trần Thị r</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/bianphongcachwabisabivedepnguyenbanindauthoigian.png?alt=media&amp;token=082bc559-c0d6-4dec-85f2-ceb77b66e0cb</t>
+  </si>
+  <si>
+    <t>Người Nhật nổi tiếng thế giới với sự chính xác tới từng chi tiết. Nếu đến thăm Nhật Bảnbạn sẽ nhận thấy rằng người Nhật đánh giá cao vẻ đẹp tự thân của các đồ vật.</t>
+  </si>
+  <si>
+    <t>Phong cách Wabi-sabi dựa trên triết lý cổ xưa của Nhật Bản, có thể được hiểu như sau:“Wabi” có nghĩa là sự đơn giản, khiêm tốn, mời gọi trái tim rộng mở. Đồng thời tách ra khỏi sự phù phiếm của chủ nghĩa vật chất. Để từ đó, có thể trải nghiệm sự phong phú về mặt tinh thần.
+“Sabi” có nghĩa là “sự in dấu của thời gian”, thể hiện bằng tác động của thời gian lên một đối tượng. Cách vạn vật sinh ra, phát triển, già đi và suy tàn. Khái niệm Wabi-sabi bắt nguồn từ triết lý truyền thống lâu đời của Nhật Bản. Nó thể hiện tinh thần, lối sống, nghệ thuật và văn hóa của Nhật Bản. Tất cả trong một.
+Wabi Sabi tập trung vào việc “tìm lại vẻ đẹp nguyên bản”, khiêm tốn và không tô điểm. Bởi quan điểm thiết kế Wabi Sabi cho rằng “quá hoàn hảo sẽ là không hoàn hảo”.Triết lý Wabi-sabi cho rằng, mọi sự vật trên đời đều không hoàn hảo. Và chính sự không hoàn hảo đó đã tạo nên vẻ đep một cách tự nhiên, không trùng lặp.
+Nói cách khác, Wabi Sabi là nghệ thuật tìm kiếm vẻ đẹp từ sự không hoàn hảo một cách tự nhiên, cũng như chấp nhận chu kỳ phát triển &amp; suy tàn thuận theo tự nhiên.Wabi-Sabi không phải là một phong cách thiết kế nội thất cụ thể, mà là một thế giới quan. Nó tập trung vào ý tưởng tìm kiếm vẻ đẹp từ sự không hoàn hảo. Nhấn mạnh việc chấp nhận mọi thứ vốn có, hơn là phấn đấu cho sự hoàn hảo.
+Và mặc dù wabi-sabi là một triết lý của Nhật Bản, nhưng nó lại xuất phát từ văn hóa Phật giáo Thiền của Trung Quốc. Thời gian gần nhất là vào thời nhà Tống (960-1279). Nhưng thời gian chính xác là khi nào thì rất khó để xác định.Làm nổi bật bất cứ thứ gì cũ kỹ là điều phổ biến và cần thiết với thiết kế Wabi Sabi. Vấn đề là chấp nhận những gì cũ kỹ và tìm thấy vẻ đẹp trong đó. Thay vì cố gắng loại bỏ các yếu tố bị “lão hóa” tự nhiên, hãy thử sử dụng chúng.
+Phong cách Wabi-Sabi là một ý tưởng, không phải là một thứ hữu hình mà bạn có thể thấy ngay được. Bạn có thể nhìn vào một thiết kế, và cảm thấy nó được lấy cảm hứng từ wabi sabi, nhưng rất khó giải thích vì sao.Thực tế, bạn có thể tìm thấy vẻ đẹp nguyên bản trong bất cứ thứ gì. Thế nhưng có thể gọi nó là Wabi-Sabi không? Có thể có, hoặc cũng có thể không. Tuy nhiên, có 7 yếu tố được liệt kê dưới đây để xác định. Tất nhiên đây không phải là duy nhất.Để thiết kế phong cách Wabi Sabi,
+bạn không bắt buộc phải tiết giản mọi thứ. Thay vào đó, hãy cân nhắc tầm quan trọng của nó đối với bạn. Nếu nó có ý nghĩa, hãy lưu giữ. Mục đích của sự đơn giản là tạo cảm giác yên bình.Triết lý Wabi-Sabi là tìm kiếm sự đơn giản. Đương nhiên, phong cách trang trí của bạn phải phù hợp với hệ tư tưởng này. Tránh trang trí quá mức. Đồ nội thất chú trọng chức năng, thiết thực và bền. Đặc biệt, đồ nội thất bằng gỗ được khuyến khích.Bất cứ điều gì quá đối xứng sẽ phá vỡ bản chất của wabi sabi. 
+Triết lý của Wabi Sabi là chấp nhận sự không hoàn hảo. Vì vậy nếu nội thất có tất cả các yếu tố trên, nhưng có nhiều tính chất đối xứng, thì nó sẽ không được coi là wabi sabi.Trong kiến trúc hiện đại, các nhà thiết kế luôn gắn Wabi-Sabi với chủ nghĩa tối giản. Nói cách khác, Wabi Sabi tập trung vào việc “trở lại những gì nguyên bản”. khiêm tốn, không tô điểm. Giữ đồ đạc ở mức tối thiểu, mục đích mang lại một tinh thần thư thái, và bình yên.  
+Ví dụ, trong căn hộ của bạn, lớp sơn bị bong tróc, và thay vì tu sửa nó, hãy học cách chấp nhận sự xuống cấp tự nhiên này. Mặt khác làm cho nó trông nghệ thuật hơn, như là một điểm nhấn độc đáo.Wabi-Sabi thể hiện quá trình “già” đi một cách tự nhiên của mọi sự vật. Vì vậy, khi bắt đầu trang bị nội thất, bạn nên lựa chọn những món đồ có thể chịu được thử thách của thời gian.
+Wabi sabi nói về sự vô thường, và không có gì là mãi mãi. Vì vậy hãy giữ lại các đồ đạc có in dấu thời gian. Nên nếu bạn đang thiết kế theo phong cách Wabi Sabi, hãy tránh những đồ vật sáng bóng. Thay vào đó hãy tìm những món đồ trang trí hữu cơ.Những gì không thể hiển hiện bằng từ ngữ, hoặc cảm nhận được bằng giác quan, thì đó chính là Yugen. Nói cách khác, Yugen không chỉ là vẻ đẹp bề ngoài (hoặc đó chỉ là một phần nhỏ). Vẻ đẹp nằm ở sâu thẳm bên trong. Thậm chí phải tưởng tượng mới thấy hết được.
+Sự tinh tế được thể hiện trong đồ nội thất như vách ngăn mờ hoặc rèm cửa. Một chút bí ẩn bằng cách giấu hờ hững, mà không chặn chúng khỏi tầm mắt.Đó là một trạng thái tâm trí của thể chất hoặc hoạt động tinh thần. Để đạt được điều này, cần loại bỏ tất cả những thứ lộn xộn không cần thiết, hoặc dùng đồ nội thất tối giản. Cố gắng tạo không gian mở và hòa mình vào đó và đón nhận chúng.
+“Khi bạn cảm thấy áp lực trong công việc, bạn có thể bước ra ngoài, đi dạo &amp; và nghỉ ngơi”. Phong cách Wabi Sabi đề cao sự tĩnh lặng, nhằm giúp tâm trí có một tư duy sáng suốt hơn.“Khi bạn chấp nhận sự không hoàn hảo của thiên nhiên và cuộc sống, bạn cũng sẽ mở lòng đón nhận những điều chưa biết và khác thường”. Khi bạn áp dụng nguyên tắc này vào cuộc sống của mình, bạn sẽ giải phóng bản thân khỏi áp lực của các quy tắc, giới hạn và tiêu chuẩn của xã hội. Đó chính là ý nghĩa của Datsuzoku. 
+Vì đề cao sự tự do, Datsuzoku cho phép vô số ý tưởng trong thiết kế nội thất. Ví dụ: sử dụng những chiếc bình có vết nứt, bể…để minh chứng cho thời gian chúng đã tồn tại.Hoàn hảo – Không hoàn hảo. Hai từ tương phản nhưng lại diễn tả chính xác về khái niệm Wabi-Sabi.Đây không phải là một “hướng dẫn” về thiết kế wabi sabi, nhưng nếu bạn đang tìm cách để kết hợp cho căn hộ, thì 4 yếu tố sau sẽ rất hữu ích: 
+Mộc mạc tự nhiên: phong cách wabi-sabi Nhật Bản nhấn mạnh đặc tính mộc, giản dị. Trang trí thủ công, vật liệu thô và màu sắc tự nhiên độc đáo. Những bề mặt tường gồ ghề được chào đón hơn trong thiết kế wabi sabi, thay vì bức tường có bề mặt nhẵn. Tường bê tông sẽ cho một cái nhìn hiện đại hơn. Với chất liệu vải, hãy chọn vải bông, vải lanh hoặc len.DIY: áp dụng nghệ thuật cổ xưa của kintsugi. 
+Nếu bạn muốn có phong cách wabi-sabi, bạn có thể tự làm bất cứ món đồ nào có thể có xung quanh bạn. Ví dụ tận dụng gốc cây để làm ghế đẩu. Bạn thậm, chí có thể lấy một tấm ván cũ để làm một chiếc ghế băng dài.Màu sắc: thiết kế nội thất nên được thực hiện với màu sắc trung tính và hài hòa.
+Phong cách wabi-sabi là một phong cách trang trí tự nhiên, tính cách điềm tĩnh. Sử dụng tông màu ấm, màu be, cho phòng kiểu Nhật và tông màu xám hoặc tối cho phòng khách</t>
+  </si>
+  <si>
+    <t>Parisian phong cách nội thất quyến rũ vượt thời gian</t>
+  </si>
+  <si>
+    <t>Trần Thị u</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/parisianphongcachnoithatquyenruvuotthoigian.png?alt=media&amp;token=5e872970-907d-4f08-9957-20ae0a4d8cd3</t>
+  </si>
+  <si>
+    <t>Nội thất kiểu Pháp, thường được gọi là phong cách Parisian để dễ phân biệt với thiết kế nội thất đồng quê của Pháp.</t>
+  </si>
+  <si>
+    <t>Nếu bạn đang tìm kiếm một phong cách thiết kế trang nhã và sang trọng, chắc chắn không thể bỏ qua phong cách nội thất Parisian.Nội thất kiểu Pháp, thường được gọi là phong cách Parisian để dễ phân biệt với thiết kế nội thất đồng quê của Pháp.
+Đây là một phong cách nội thất tương đối hiện đại. Điều đó khiến nhiều người ngạc nhiên, vì Paris có bề dày lịch sử và tự hào với những tòa nhà cổ điển &amp; tráng lệ, đã có từ nhiều thế kỷ trước.Parisian là sự kết hợp giữa sự thanh lịch và duyên dáng. Phong cách này có vẻ ngoài giản dị và thoáng đãng. Cân bằng giữa sự lịch lãm và thoải mái. Đây cũng là nguồn cảm hứng cho nhiều nhà thiết kế trên thế giới.
+Parisian có thể phù hợp nhiều kiểu nhà, căn hộ khác nhau. Style này không yêu cầu những món đồ nội thất xa hoa, đắt tiền. Mọi thứ được giữ ở mức vừa đủ. Do đó, ngay cả khi bạn không sống ở Paris, bạn vẫn có thể dễ dàng thiết kế theo phong cách này.
+Nước Pháp nổi tiếng với kiến trúc tráng lệ, với những hình thái kiến trúc khác nhau. Đôi khi có vẻ lộng lẫy của Baroque, đôi khi lại đắm say với hương thơm của hoa oải hương và bầu không khí bình dị của Provence.Trần nhà cao, cửa sổ đôi suốt từ trần đến sàn, tấm ốp tường. Lò sưởi bằng đá cẩm thạch, đường phào chỉ và sàn gỗ.
+Phong cách nội thất Parisian giống như một quý cô. Không cần phô trương nhưng vô cùng quyến rũ. Phong cách Parisian sẽ không tồn tại nếu không có Georges Haussmann. Nam tước người Pháp là người đưa ra kế hoạch tái thiết Paris (1852-1870). Và đã mang lại cho thành phố một bộ mặt hoàn toàn mới.Trong thời kỳ tái thiết này, hầu hết các công trình kiến trúc tuyệt đẹp đã được xây dựng. 
+Haussmann mang đến cho người dân Paris những công trình tiêu chuẩn cao. Do đó, kiến trúc &amp; nội thất ở Paris là sự pha trộn của các hình thức và họa tiết lấy từ các thời kỳ Baroque, Regency và Rococo, nhưng được đơn giản hóa và khiêm tốn hơn.Kiến trúc lịch sử là một trong những tài sản lớn nhất ở Paris.
+Thay vì chạy theo mốt và thay đổi diện mạo căn phòng mỗi khi xu hướng mới xuất hiện, họ lại thích chăm sóc di sản của các thế hệ trước để lại. Điều này có nghĩa là các căn nhà, căn hộ ở Paris giống như những bảo tàng với đầy những vật trưng bày.
+Pha trộn phong cách thiết kế nội thất cổ điển và đương đại, nhằm có một cái nhìn độc đáo hơn.Các đồ vật trang trí và nghệ thuật đương đại được đặt chung với đồ cổ điển. Tuy nhiên, điều đó lại khiến chúng trở nên phong cách hơn. Trong phong cách Parisian, điều quan trọng nhất là trục đối xứng “liên kết” các không gian với nhau.
+Những bức tường trắng, phào chỉ trên trần và tường. Cửa sổ đôi lớn bao quanh ban công bằng sắt rèn.Sàn lát gỗ kiểu xương cá, và lò sưởi bằng đá cẩm thạch là một số đặc điểm nổi bật được tìm thấy ở phong cách Parisian.Sự đối xứng mang đến sự hài hòa cho toàn bộ thiết kế nội thất. Không gian nhiều ánh sáng, màu sắc tươi sáng và vật liệu tự nhiên là tinh hoa của phong cách Pháp.
+Nội thất theo phong cách Pháp Parisian nhẹ nhàng, tươi sáng và mời gọi. Parisian dành cho những ai yêu thích nét cổ điển nhưng nhẹ nhàng, đơn giản và sang trọng.Nội thất Paris có một bảng màu đơn giản. Tất nhiên, có những ngoại lệ cho điều này, nhưng hầu hết nội thất Parisian Chic sẽ bắt đầu với những bức tường trắng hoặc xám nhạt với lớp sơn hoàn thiện.
+Những bức tường trắng hoàn hảo cho các tác phẩm nghệ thuật và decor nổi bật, thu hút ánh nhìn. Đồng thời cũng sẽ làm cho không gian có cảm giác rộng và sáng hơn.Còn nếu bạn muốn màu sắc nổi bật, các tông màu như vàng rực rỡ, đỏ ruby, hoặc xanh lam cũng có thể hiệu quả, nhưng với liều lượng nhỏ. Chẳng hạn như trên vải bọc ghế, sofa, gối, rèm, hoặc các phụ kiện decor.
+Các vật liệu tự nhiên như da cừu hoặc thảm len để lát sàn cũng có thể mang lại sự êm dịu trong phong cách Parisian.Đèn chùm mang lại sự sang trọng hoàn hảo cho phong cách nội thất kiểu Pháp Parisian. Hiện diện ở mọi không gian, từ phòng khách cho đến phòng tắm và nhà bếp, v.v.. Có thể hiện đại hoặc cổ điển, đều được.
+Những căn phòng lớn với trần nhà cao sẽ cần một đèn chiếu chùm lớn. Một chiếc đèn chùm truyền thống của Pháp là một lựa chọn hoàn hảo. Vì chúng sẽ trở thành tâm điểm, và tạo nên sự quyến rũ hơn cho không gian.Khi nói đến cửa sổ, rèm cửa là thứ bắt buộc phải có. Chất liệu đèn chùm bằng thủy tính, pha lê, hoặc sắt rèn, mạ đồng đều phù hợp. Nhưng điều quan trọng là kích thước của đèn phải tương xứng với căn phòng.Bạn có thể mang cái nhìn tươi mới hơn bằng cách bọc lại chúng bằng các loại vải hiện đại.
+Rèm làm tăng sự sang trọng. Hãy thử sử dụng rèm với màu sắc phong phú, lấp lánh, như Nhung, Lụa.Nếu bạn thích một cái nhìn tinh tế hơn, hãy sử dụng dây buộc, tua rua, thanh treo rèm, khăn trải v.v…Đó cũng là cách làm không gian thêm lãng mạn.Chìa khóa của phong cách trang trí Parisian là sự tôn vinh cái cũ và mới trong cùng một khung cảnh. Pha trộn và kết hợp đồ nội thất truyền thống Pháp với những món đồ hiện đại.
+Đặt các tác phẩm nghệ thuật hiện đại bên cạnh những bức tranh sơn dầu cổ điển. Và bạn cũng đừng lo lắng về việc mọi thứ có “hợp” với nhau hay không. Chỉ cần chọn những món đồ bạn yêu thích, tất cả sẽ tự kết hợp với nhau một cách hoàn hảo.Một chiếc gương mạ vàng ngoại cỡ là yếu tố chính tạo nên vẻ ngoài sang trọng của Parisian Chic. 
+Hầu hết các kiểu gương đều phù hợp. Nhưng để có vẻ Parisian thực sự, hãy tìm những chiếc gương cổ điển, với phần trên hình vòm. Tuyệt hơn nếu được mạ vàng đồng, và có các họa tiết điêu khắc trên khung.Có rất nhiều mẫu sàn gỗ khác nhau để bạn lựa chọn, chẳng hạn như xương cá, chevron và Versailles. Mô hình xương cá đặc biệt phổ biến vào thời điểm hiện tại do nó đẹp trong cả nội thất truyền thống lẫn hiện đại.
+Sàn gỗ có lịch sử lâu đời ở Pháp từ thế kỷ 16. Lát sàn gỗ tạo nên sự sang trọng cho ngôi nhà. Mặc dù có thể tốn kém, nhưng bạn có thể coi việc lắp đặt sàn lát gỗ như một khoản đầu tư xứng đáng. Vì nó vừa sang trọng, vừa bền bỉ với thời gian. Đồng thời không gian trở nên ám áp và hấp dẫn hơn.
+Sẽ không có phong cách Parisian nếu như không có tác phẩm nghệ thuật trong đó. Như chúng ta đã thảo luận trước đó, việc pha trộn cái cũ và cái mới được khuyến khích. Vì vậy hãy treo một số tác phẩm nghệ thuật hiện đại, táo bạo bên cạnh một thứ gì đó truyền thống.Tốt nhất nên đặt phía trên lò sưởi. Một chiếc gương lớn với khung mạ vàng sẽ tạo thêm nét quyến rũ kiểu Pháp cho không gian của bạn đồng thời giúp căn phòng của bạn có cảm giác rộng hơn và sáng hơn.
+Ban công bằng sắt rèn của các căn nhà ở Paris thường được trang trí đẹp mắt với cây xanh và hoa quanh năm. Ngay cả trong những tháng mùa đông lạnh lẽo. Nếu có hoa tươi thì quá tuyệt vời. Thậm chí hoa khô cũng là một lựa chọn không kém.Hãy coi những bức tường sáng màu của bạn là phông nền hoàn hảo để trưng bày các tác phẩm nghệ thuật yêu thích. Những khung hình tối màu sẽ tạo ra sự tương phản nhiều nhất với những bức tường trắng, cho cái nhìn nổi bật.
+Một số người sáng tạo hơn, bằng cách trang trí những bức tường nổi bật của họ bằng những hình nền tuyệt vời với cây xanh, hoa lá và tất cả các loại thực vật. Đấy cũng là một cách để mang không gian thiên nhiên vào nhà. Nếu không có lựa chọn nào hấp dẫn hơn, hãy dùng giấy dán tường lấy cảm hứng từ thiên nhiên.Điều cần nhớ khi thiết kế nội thất Parisian Chic là không chạy theo mốt và xu hướng. Vẻ đẹp của phong cách thiết kế nội thất này là tính trường tồn với thời gian, và khả năng phát triển tự nhiên.
+Đừng phân cấp quá nhiều không gian của bạn, và đừng bao giờ đặt hình thức lên trên chức năng. Xét cho cùng, hình ảnh thu nhỏ của phong cách Parisian là tính thực dụng và thoải mái.Phong cách Parisian dễ làm đắm say nhiều người. Cái hay của Parisian là sự kết hợp bất thường giữa đồ nội thất hiện đại và cổ điển. Chính điều này đã mang lại một hiệu ứng đáng kinh ngạc. Thế nhưng, đáng tiếc là nó lại không quá phổ biến ở Vietnam.
+Với sự sang trọng cổ điển, Parisian mang một vẻ đẹp vượt thời gian, và sẽ không bao giờ lỗi thời. Tuy nhiên, phong cách này đòi hỏi một sự sắp xếp tài tình của người thiết kế nội thất.</t>
+  </si>
+  <si>
+    <t>Khám phá sức hấp dẫn của nội thất phong cách Loft</t>
+  </si>
+  <si>
+    <t>Trần Thị p</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/khamphasuchapdancuanoithatphongcanhloft.png?alt=media&amp;token=79ebaf7f-343c-42ce-99b4-84ddfcc13918</t>
+  </si>
+  <si>
+    <t>Phong cách Loft (gác xép, gác mái) là tên gọi của một phong cách đô thị hiện đại trong thiết kế nội thất.</t>
+  </si>
+  <si>
+    <t>Phong cách Loft (gác xép, gác mái) là tên gọi của một phong cách đô thị hiện đại trong thiết kế nội thất. Nội thất phong cách Loft gây ấn tượng bởi không gian mở và các yếu tố trang trí mang tính công nghiệp. Ví dụ như trần nhà rất cao, tường gạch thô, dầm gỗ, bê tông và các đường ống lộ ra ngoài, v.v…Tuy nhiên, phong cách Loft còn được hiểu rộng hơn. Chúng bao gồm văn phòng, căn hộ chung cư, studio, câu lạc bộ, phòng tập, v.v…
+Ở Mỹ, thuật ngữ Loft được sử dụng để mô tả không gian của tầng áp mái. Tuy nhiên, ở Anh (England), nó không gì khác hơn là một không gian lưu trữ dưới mái nhà, cùng với một chiếc thang.Phong cách gác xép (Loft) không quá phổ biến ở VN, nhưng đáng ngạc nhiên là nó vẫn được yêu thích. Thiết kế phong cách Loft mang màu sắc và cá tính, cũng như bầu không khí tự do, phóng khoáng.Loft có nghĩa là một căn phòng áp mái của một ngôi nhà (hoặc tòa nhà), được sử dụng để ở hoặc thương mại. 
+Thiết kế phong cách Loft hình thành khi cuộc cách mạng tại Châu Âu suy thoái nghiêm trọng. Các xưởng công nghiệp bỏ hoang khá nhiều. Tình trạng thất nghiệp và vô gia cư tăng. Do đó, người dân tái chế và biến chúng thành nhà, căn hộ để ở. Với bối cảnh đó, nên phong cách Loft và industrial có những nét tương đồng là dễ hiểu.Đặc điểm của nội thất phong cách Loft
+Phong cách Loft – một di sản của New York thời công nghiệp vào thế kỷ XX. Tuy nhiên Loft được coi là phiên bản mới, hiện đại và công nghệ hơn so với industrial (phong cách công nghiệp).Việc thiết kế một không gian nội thất theo phong cách Loft có thể thực hiện mà không cần quá nhiều kinh phí. Nó không yêu cầu những đồ nội thất đắt tiền. Mà những yếu tồ cần có:Bố cục tự do và cởi mở. Sử dụng tối thiểu các bức tường và vách ngăn bên trong.
+Trần nhà cao, cùng với các thanh xà bằng gỗ hoặc kim loại. Các đường ống thông gió lộ ra ngoài. Hoặc các đường ống kỹ thuật khác. Hoàn thiện tường thô. Rất nhiều bê tông, vữa và gạch – một yếu tố không thể thiếu để nhấn mạnh tính chất đặc trưng của Loft. Tông màu nhẹ để hấp thụ ánh sáng tự nhiên. Đảm bảo tối đa ánh nắng vào phòng.Cầu thang: vật liệu phổ biến nhất cho cầu thang là kim loại, có thể kết hợp với gỗ.
+Đồ nội thất thiết kế hiện đại, kết hợp với các đường nét hoài cổ. Số lượng đồ nội thất tối thiểu với các dạng hình học đơn giản. Màu sắc trung tính.Decor trang trí được lựa chọn với sự sáng tạo. Các tác phẩm nghệ thuật trong trang trí được đặt lên hàng đầu. Các đối tượng nghệ thuật có thể khác nhau và không nhất thiết phải phù hợp với nhau.Hướng dẫn thiết kế phong cách Loft
+Loft không quá thịnh hành, nhưng phong cách này được đánh giá cao bởi sự ấn tượng. Phong cách thiết kế nội thất Loft lý tưởng cho những người thích không gian tự do. Những người có cá tính, thích sự khác biệt.Tất nhiên, không phải ai cũng có thể đưa tất cả cá yếu tố trên vào căn nhà của mình. Tuy nhiên, bạn có thể chắt lọc các yếu tố phù hợp với sở thích dưới đây:Những bức tường
+Để tạo ra một nội thất theo phong cách độc đáo này, bạn cần lưu ý rằng không nên có quá nhiều vách ngăn. Hoặc ngăn với mục đích tối thiểu mà thôi.Trần nhà. Gạch hoặc bê tông. Không có thạch cao. Chúng cũng có thể được trát thô hoặc phủ một cách ngẫu nhiên bằng sơn nước, sơn hiệu ứng. Đối với trần nhà cao, các yếu tố công nghiệp nên được sử dụng. Ví dụ như xà gỗ, dầm, ống thông gió. Với một căn hộ nhỏ với trần nhà thấp, chỉ cần trát tường và sơn màu trắng hoặc để thô.Không gian mở
+Giúp loại bỏ sự hiện diện của các bức tường lớn bên trong. Cửa sổ lớn và tường gạch hoặc bê tông sẽ là lý tưởng.Sơn tường .Sơn hoặc ốp lát một cách bóng bẩy với phong cách nội thất Loft là một sai lầm. Nếu bắt buộc phải như vậy thì nên có một diện tường với vật liệu thô ráp hoặc cũ kỹ. Ván sàn kiểu Loft phải là khổ lớn (kiểu như bong tàu càng tốt). Với sàn gạch thì sàn gạch bê tông, sàn expoxy, hoặc sàn đá mài.Cửa sổ
+Để căn phòng có đủ ánh sáng tự nhiên, cửa sổ càng lớn càng tốt. Khung cửa sổ chủ yếu bằng gỗ hoặc phủ sơn.Màu sắcBạn có thể sử dụng các vách ngăn gấp mở linh hoạt để phân chia không gian. Ngoài ra, có thể phân chia khu vực bằng vật liệu cũ và mới xen kẽ.Điều quan trọng là bạn phải cảm thấy thoải mái. Các màu truyền thống là màu xám, trắng, đen, be và nâu. Tuy nhiên bạn có thể linh động cho phù hợp. Nhưng nếu có thể, hãy dùng các màu trung tính, hơi tối và “bụi bặm” một chút.Phân vùng
+Trang trí.Tranh vẽ, tác phẩm điêu khắc, tượng nhỏ &amp; hoa lá…Bất kỳ yếu tố trang trí nào theo sở thích của bạn sẽ giúp nhấn mạnh tính độc đáo. Sự hiện diện của những món đồ thiết kế khác nhau sẽ làm cho không gian trở nên hoàn thiện và sống động.Đèn phong cách Loft.Ý tưởng chiếu sáng đóng vai trò rất quan trọng trong việc tạo nên nội thất phong cách Loft. Mỗi nguồn sáng đảm nhận một chức năng khác nhau. Thiết kế ánh sáng Loft đòi hỏi sự sáng tạo và nhiều sự tiếp cận khác nhau, tùy vào chức năng của không gian.
+Phong cách Loft (gác xép) đặc trưng bởi việc sử dụng các yếu tố ánh sáng đa dạng. Với sự trợ giúp của đèn, bạn bạn có thể phân vùng không hoặc nhấn mạnh từng khu vực riêng biệt. Đối với một căn phòng lớn, các loại đèn dưới đây thường được sử dụng:Đèn chùm Một chiếc đèn chùm lớn là một yếu tố khá bất thường. Tuy nhiên, một chiếc đèn chùm có khung kim loại sẽ khá thích hợp. Chi tiết này nhấn mạnh sự quyến rũ của phong cách và sẽ trở thành điểm nhấn trung tâm của phòng khách hoặc khu vực ăn uống.
+Đèn sàn.Loại này sẽ tạo ra một bầu không khí thoải mái thực sự. Không chỉ góp phần tạo thêm điểm nhấn, mà còn phục vụ cho nhu cầu tại từng khu vực cụ thể. Ví dụ như đọc sách, nghe nhạc, thậm chí làm việc.Phong cách Loft của riêng bạn.Có nhiều phương pháp khác nhau để mang phong cách Loft vào nhà. Đối với cửa sổ phòng khách, đừng cố gắng che tất cả bằng rèm. Hãy phô trương chúng. Khi cần thiết thì dùng rèm cuốn để điều tiết ánh sáng. Bởi rèm cuốn cho một cái nhìn gọn hơn và cho phép nhiều ánh sáng đi qua khi mở hoàn toàn.
+Đồ nội thất ưu tiên chức năng và sự tối giản hơn là hình thức trang trí. Có thể kết hợp giữa cũ và mới, cổ điển và hiện đại. Các vật dụng như bàn trà, sofa có thể có bánh xe để di chuyển. Mục đích là để bạn có thể dễ dàng giải phóng để không gian rộng hơn bất kỳ lúc nào.</t>
+  </si>
+  <si>
+    <t>Khám phá sức hấp dẫn của phong cách Victorian</t>
+  </si>
+  <si>
+    <t>Trần Thị v</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/khamphasuchapdancuaphongcachvictorian.png?alt=media&amp;token=72809cf4-6936-4613-8134-3b628b0ef5ca</t>
+  </si>
+  <si>
+    <t>Những ngôi nhà được trang trí công phu, màu sắc rực rỡ là hình ảnh mà nhiều người nghĩ đến khi họ hình dung về phong cách thiết kế Victorian.</t>
+  </si>
+  <si>
+    <t>Phong cách Japandi là sự kết hợp hoàn hảo giữa Scandinavian và chủ nghĩa tối giản mộc mạc wabi-sabi của Nhật Bản. Sự kết hợp này tạo nên một sự pha trộn tuyệt vời giữa hai nền văn hóa, mặc dù cách nhau rất xa về mặt địa lý.
+Nếu bạn đã từng yêu thích phong cách Scandinavian thì thiết kế nội thất Japandi chính là nơi giao thoa giữa hai phong cách này. Cả Scandinavian và Japandi đều bắt nguồn từ các nguyên tắc thiết kế tối giản, tập trung vào chức năng cũng như các yếu tố mang tính tự nhiên.
+Để hiểu về Japandi, trước hết xem xét điểm tương đồng giữa hai phong cách này:Japandi Japandi – Nhật Bản: dựa trên khái niệm wabi-sabi của Nhật Bản (tìm kiếm vẻ đẹp và sự hoàn hảo bên trong những điều không hoàn hảo).Thiết kế tối giản, “Ít hơn cũng là nhiều hơn”. Đường nét sạch sẽ và tình yêu dành cho vật liệu là trọng tâm của thiết kế Bắc Âu. Một sản phẩm trước tiên phải phục vụ một mục đích cụ thể, và hình thức theo sau chức năng.
+Cách tiếp cận đơn giản xuất phát từ ý tưởng rằng vẻ đẹp được tìm thấy trong những thứ đơn giản, ít hơn là nhiều hơn. Phong cách này loại bỏ những đồ trang trí không cần thiết, để chất liệu và chức năng của đồ nội thất tự nói lên điều đó.
+Mối liên hệ với quá khứ rất dễ thấy trong thiết kế đương đại của Nhật Bản, với sự tôn trọng sâu sắc đối với nghề truyền thống, nghề thủ công và kỹ thuật cổ đại. Trọng tâm của quá trình thiết kế là tính đơn giản và đề cao chức năng. Một món đồ nội thất phải đẹp khi nhìn từ phía sau cũng như từ phía trước. Các bề mặt tự nhiên của vật liệu thường là kiểu trang trí duy nhất trên đối tượng được thiết kế.
+ScandinavianScandinavian- Bắc Âu: dựa trên khái niệm “hygge” của Đan Mạch (tìm kiếm sự đơn giản, ấm cúng và vui vẻ trong cuộc sống).Với phong cách Japandi, bạn sẽ không tìm thấy nhiều chi tiết trang trí. Thay vào đó, hình học và đường nét mới thực sự tỏa sáng trong những không gian này.
+Việc khan hiếm nguyên liệu nhằm bảo vệ môi trường, đã dẫn đến cách tiếp cận đơn giản trong thiết kế ở Bắc Âu – Scandinavian cũng như Nhật Bản – Japandi. Điều này có nghĩa là mọi chi tiết thừa thường được loại bỏ trong thiết kế của Đan Mạch, để cho hình dạng và chất liệu của sản phẩm tự nó là trung tâm. Vật liệu thô, các đường vân của gỗ được nhấn mạnh như một yếu tố thiết kế chính của sản phẩm.Nguồn gốc của phong cách Japandi?
+Japandi được phát triển bới các nhà thiết kế Bắu Âu (Đan Mạch). Thiết kế của Đan Mạch đã bị ảnh hưởng nhiều bởi thiết kế của Nhật Bản trong hơn 150 năm. Phong cách này bắt đầu kể từ năm 1853 khi Nhật Bản mở cửa biên giới với phần còn lại của thế giới, sau nhiều thế kỷ bị đóng cửa. Vào thời điểm đó, các thiết kế Đan Mạch bắt đầu bị ảnh hưởng bởi nét thẩm mỹ phương Đông đầy bí ẩn và hấp dẫn này.
+Japandi là một phong cách thiết kế nội thất mới, nhưng rất được yêu thích, bởi nó gần gũi. Sức hấp dẫn của phong cách Japandi là các đường nét sạch sẽ, đơn giản. Vật liệu tư nhiên, tạo ra một không gian sống thuần khiết, thanh bình.Đặc trưng của phong cách Japandi
+Nguyên tắc thiết kế tối giản Sử dụng các đường nét sạch sẽ Mọi thứ ngăn nắp có trật tự Vật liệu tự nhiên thân thiện với môi trường Màu gỗ phong phú. Họa tiết đơn giản, ít chi tiết trang trí Màu sắc trung tính nhưng ấm áp Một số đồ trang trí thủ công Không thể thiếu cây xanh Đồ nội thất thấp Ưu tiên ánh sáng tự nhiên
+Thiên nhiên được tôn vinhKhiêm tốn và không phô trươngĐặc trưng của thiết kế Scandinavian là sử dụng tông màu trắng và trung tính. Ngược lại, thiết kế của Nhật Bản lại thích sử dụng tông màu đất, lấy cảm hứng từ thiên nhiên. Vì vậy, trong trang trí Japandi áp dụng cả hai cách phối màu này.
+Sự tương phản là điều cần thiết cho thiết kế Japandi. Các điểm nhấn đậm hơn lấy cảm hứng từ phong cách Nhật Bản như màu than hoặc tông màu đất tối để tạo sự tương phản, nhưng luôn giữ cho mọi thứ đơn giản và tự nhiên.Phong cách nội thất Japandi là thiết kế tối giản mà không lạnh lùng. Áp dụng phong cách Japandi làm cho ngôi nhà của bạn trở nên ấm áp, tĩnh lặng và sạch sẽ hơn. Có thể nói vẽ đẹp Japandi mang lại là vượt thời gian.
+Cách trang trí Japandi rất phù hợp với lối sống hiện đại. Ngôi nhà theo phong cách Japandi có thể tạo ra một môi trường sạch sẽ, lành mạnh và yên tĩnh để bạn có thể thực sự thư giãn.Các mẫu thiết kế phong cách Japandi
+Nếu bạn là người yêu thích sự tối giản, rất có thể bạn đã bắt đầu thử nghiệm phong cách Japandi. Thiết kế Japandi tập trung vào sự bền vững, do đó, hãy tìm những món đồ thân thiện với môi trường, như gỗ mộc, hoặc Tre, đất nung, v.v.. để mang lại cảm giác tự nhiên và giản dị.Đồ nội thất &amp; màu sắc
+Giảm bớt sự lộn xộn cũng là chìa khóa để đạt được phong cách Japandi. Đồng thời tập trung vào các đường nét sạch sẽ và không gian mở. Cố gắng loại bỏ những thứ cồng kềnh và giữ cho không gian của bạn luôn thoáng và ngăn nắp. Sử dụng các màu pastel với chút xanh lá cây nhạt hoặc mang cây cây xanh vào nhà để tạo cảm giác gần gũi với thiên nhiên.Sự tinh tế &amp; thanh lịch
+Hãy giữ sự ấm cúng của thiết kế Scandi với các đường nét mềm mại, trong khi vẫn giữ được nét tối giản thanh lịch của phong cách trang trí Japandi. Mặc dù cả hai phong cách đều tập trung vào tính ứng dụng cao, nhưng điều quan trọng là phải duy trì cảm giác yên tĩnh giống như “thiền” trong không gian. Đó mới chính là tinh thần của Japandi.Phòng ngủ phong cách Japandi
+Để thực sự thiết kế phòng ngủ của bạn theo phong cách Japandi, bạn sẽ dùng các vật liệu tự nhiên. Từ sàn gỗ, sàn bê tông, đồ nội thất bằng gỗ, khăn trải giường, đồ nội thất mây tre, đồ gốm sứ, đất nung, v.v…Cố gắng tránh sử dụng những vật liệu như kim loại bóng, sơn bóng. Vì nó xung đột với triết lý thiết kế Japandi.
+Mùi hương: mía, cà phê esparto, sậy, raffia có hương thơm riêng gợi nhớ không gian bên ngoài và đưa chúng ta trở lại với thiên nhiên. Và tất nhiên là không thể thiếu cây xanh.Màu sắc: là các màu trung tính. Nếu phong cách Scandinavian chủ yếu sử dụng các màu sáng, thì Japandi sử dụng các màu tối hơn và màu đất. Hãy nghĩ đến màu đỏ gỉ, đất nung, xanh ô liu, xám bụi, v.v…
+Vật dụng: các đồ nội thất như tủ, giường, v.v…nên hạ thấp chiều cao. Loại bỏ những tủ lưu trữ cồng kềnh. Và đặc biệt lưu ý “chất lượng hơn số lượng”.Thiết kế phòng khách Japandi Trang trí phòng khách Japandi sử dụng các chất liệu hữu cơ và tự nhiên, như đèn gốm và đèn giấy, chậu đất nung, len, gỗ thô, vải lanh và sợi gai, v.v..đều là những vật liệu tuyệt vời để trang trí phòng khách Japandi.
+Cố gắng giữ mọi thứ thật đơn giản. Phòng khách kiểu Japandi luôn sử dụng chất liệu gỗ, đặc biệt là gỗ tự nhiên. Đồ nội thất được hạ thấp trọng tâm. Không gian mở, bố cục tự do, cho phép ánh sáng tự nhiên, thông gió và tầm nhìn xuyên suốt qua các khu vực khác nhau trong nhà.
+Để có được một phòng khách Japandi hấp dẫn, hãy kết hợp những bức tường trắng ấm áp với các tông màu tương phản màu đất và ấm áp như màu be, đất nung, kem, nâu sô cô la và than. Sử dụng màu đen làm điểm nhấn.Lời kết
+Một điều đáng nói, các thiết kế nội thất phong cách Japandi đều có tính linh hoạt cao. Điều đó một phần có thể ảnh hưởng từ nghệ thuật gấp giấy Origami của
+Nhật Bản. Nhìn chung, phong cách Japandi và Scandi đều không mới, nhưng sự kết hợp của cả hai chắc chắn sẽ là một xu hướng rất hot trong những năm tới</t>
+  </si>
+  <si>
+    <t>Cách đặt cầu thang trong nhà mang đến tài lộc và may mắn</t>
+  </si>
+  <si>
+    <t>Trần Thị i</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/cachdatcauthangtrongnhamangdentailocvamayman.png?alt=media&amp;token=0b8585d5-4add-4d74-897a-ad8a7ddf8189</t>
+  </si>
+  <si>
+    <t>Bước đầu tiên khi thiết kế sơ đồ mặt bằng nhà, các Kiến trúc sư sẽ xác định vị trí đặt cầu thang.</t>
+  </si>
+  <si>
+    <t>Gợi ý cách thiết kế nội thất căn hộ chung cư đẹp ấn tượng</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/goiycachthietkenoithatcanhochungcudepantuong.png?alt=media&amp;token=a5bc2083-1355-4e39-b734-1aa6de888754</t>
+  </si>
+  <si>
+    <t>8 cách để nội thất căn hộ trở nên ấn tượng hơn</t>
+  </si>
+  <si>
+    <t>Sự kết hợp giữa phong cách Việt Nam và Pháp được gọi là indochine. Phong cách indochine là di sản nghệ thuật của người Pháp, được hình thành trong quá trình mở rộng thuộc địa ở một số nước châu Á. Tuy nhiên indochine tại Việt Nam đặc biệt phát triển, trong khi Campuchia ít được quan tâm. Và Lào, phần lớn bị bỏ quên.
+Phong cách này phát triển từ năm 1920 đến 1950. Trong số đó, có thể kể đến kiến trúc sư Pháp Ernest Hébrard, người đã thiết kế nhiều công trình đặc trưng của phong cách này tại Việt Nam, và các nước Đông Nam Á. Pháp thuộc địa hóa Việt Nam vào những năm 1880. Do đó, Việt Nam chịu ảnh hưởng của Pháp trong nhiều khía cạnh. Bao gồm nghệ thuật, kiến trúc, thời trang và ẩm thực.
+Đồng thời, người Pháp cũng đã thực hiện một số thay đổi quan trọng về kinh tế, xã hội và ngôn ngữ. Giống như cách họ đã thực hiện với các thuộc địa khác trên thế giới.Nổi bật nhất về ảnh hưởng của Pháp là Nhà hát lớn Hà Nội. Khách sạn Sofitel Metropole Legend Hanoi cũng là một ví dụ khác về phong cách thuộc địa Pháp.
+Ngay sau khi Việt Nam giành được độc lập, những ảnh hưởng đó vẫn còn. Bằng chứng là các di sản văn hóa kiến trúc phong cách indochine vẫn còn tồn tại đến ngày nay. Từ miền Bắc, miền Trung, cho đến miền Nam. Sau Cách mạng Pháp, ở Pháp xuất hiện niềm tin rằng, sứ mệnh của họ là truyền bá văn hóa và văn minh Pháp, biến dân cư của các thuộc địa thành người Pháp. Vậy, dễ hiểu vì sao phong cách indochine chịu ảnh hưởng nhiều từ văn hóa Pháp.
+Ảnh hưởng của Pháp thể hiện rõ nhất trong kiến trúc. Đặc biệt là thủ đô Hà Nội. Những đại lộ lớn, rợp bóng cây, được thiết kế giống những đại lộ ở Paris. Các biệt thự theo phong cách châu Âu khác nhau nằm dọc các con phố trong Khu phố Pháp.Thành phố Hồ Chí Minh đã trải qua một sự thay đổi mạnh mẽ trong những năm gần đây. Nhiều tòa nhà hiện đại mang dáng dấp kiến trúc Pháp. Trong đó, không thể không kể đến khách sạn Park Hyatt Saigon (xây dựng năm 2005).
+Tp. Huế là một trong những thành phố có kiến trúc Indochine đẹp nhất Việt Nam, nơi lưu giữ những di sản văn hóa, kiến trúc của thời kỳ đó. Điển hình như, nhà máy bia Tiger, ga Đông Ba, nhà thờ Con Gà, khách sạn Morin. Những tòa nhà này có điểm chung là kết hợp giữa hai phong cách kiến trúc Đông – Tây, mang một vẻ đẹp độc đáo.
+Các tòa nhà kiến trúc Indochine ở Huế đóng vai trò quan trọng trong việc bảo tồn và phát triển văn hóa và du lịch ở địa phương. Thu hút đông đảo du khách đến tham quan và tìm hiểu về lịch sử, văn hóa.Ngoài ra, Tòa thị chính thành phố, được người Pháp xây dựng vào năm 1908 và vẫn được sử dụng làm UBNN Thành Phố. Nhà thờ Đức Bà (được xây dựng vào cuối những năm 1800) và Nhà hát Lớn (hoàn thành năm 1897).
+Công trình kiến trúc đáng chú ý nhất gồm, La Residence Hue Hotel &amp; Spa, một kiệt tác Art Deco được xây dựng làm nhà khách cho Toàn quyền Đông Dương. Và Le Cercle Sportif, một tòa nhà theo phong cách Art Moderne, được dùng làm câu lạc bộ cho giới thượng lưu thuộc địa.Một địa danh khác là Bưu điện Trung tâm Sài Gòn, được thiết kế bởi Gustave Eiffel, với mái vòm và cửa sổ hình vòm, gợi nhớ đến những nhà ga đường sắt lớn của châu Âu.
+Di sản kiến trúc Indochine mang giá trị lịch sử đặc biệt, tượng trưng cho thời kỳ thuộc địa Pháp ở Đông Dương. Là một phần không thể thiếu trong việc bảo tồn và phát triển.Nghệ thuật kiến trúc được thể hiện cụ thể ở các yếu tố mặt bằng, kết cấu kiến trúc. Nổi bật nhất là hệ thống các biểu tượng, mô típ trang trí đặc trưng của triết học Á Đông.Công trình mang tính hoành tráng. Có khả năng biểu đạt nhiều cung bậc cảm xúcHình khối
+và trang trí mang đậm tính cổ điển. Có giá trị không chỉ về mặt kiến trúc mà còn về mặt lịch sử, văn hoá.Mặt đứng tuân thủ tính đối xứng nghiêm ngặt, cũng như nguyên tắc tổ chức đặc, rỗng.Mái ngói bằng hoặc dốc. Mục đích giảm bức xạ, chống nắng nóng..Mái ngói có nhiều lớp. Các góc của mái nhà được uốn cong, được trang trí bằng các phù điêu.Cây xanh có mối liên hệ chặt chẽ với công trình kiến trúc. Các khu vườn nhỏ hay sân thượng được sử dụng để làm dịu mát không khí.Các hồ nước
+, cảnh quan thiên nhiên được khai thác gắn liền với công trìnhKết cấu chịu lực chính là tường xây gạch, đá. Sử dụng vòm cuốn gạch với những kiểu khác nhau.Mái nhà thường làm đua ra để chống hắt (mưa), nhưng vẫn đảm bảo lấy sáng.Dùng đá làm móng, với đế móng rất rộng, nhằm cách ẩm cho tường móng.Thông gió tự nhiên bằng sự trao đổi không khí liên tục giữa các phòng. Quá trính này được thực hiện bằng giải pháp kiến trúc.Điều thú vị là phong cách indochine,
+ngoài tính thẩm mỹ, còn phù hợp với tập quán sinh hoạt và khí hậu nhiệt đới, nóng ẩm ở Việt Nam. Bố cục đối xứng, nhấn mạnh trung tâm của không gian.Tổ hợp các thức cột nghiêm ngặt, sử dụng nhiều họa tiết trang trí và điêu khắc.Cửa sổ mái là một đặc trưng mang tính khác biệt của phong cách indochine. Nhằm làm thông thoáng khí nóng cho tầng áp mái.Những bức mành tre hay rèm vải cho những ô cửa.Cửa sổ lớn, được thiết kế để tận dụng tối đa ánh sáng và gió tự nhiên.
+Cửa thường có màu vàng, trắng, xanh.Hệ thống cửa 2 lớp, cửa chớp (trong kính ngoài chớp). Vòm cửa cong, được trang trí gờ phào chỉ.Chú trọng trần, tường, sàn, không gian khánh tiết, sảnh đón, sảnh đệm.Tường dày, cho cảm giác mát mẻ vào mùa hè, và ấm áp vào mùa đông.Nền cao, làm bằng gạch, hoàn thiện gạch hoa (gạch bông) kiểu PhápKhoảng đệm giữa các không gian (ban công, hiên, lozia…) nhằm điều tiết không khí với môi trương xung quanh 
+Màu sắc phong cách Indochine bao gồm: đỏ, vàng, cam, xanh lá cây, xanh navy, trắng và đen. Màu nhấn là những gam màu ấm nóng, đầy sức sống của xứ nhiệt đới, như màu vàng cam, màu đỏ, màu tím… Màu sắc phong cách Indochine bao gồm: đỏ, vàng, cam, xanh lá cây, xanh navy, trắng và đen. Màu nhấn là những gam màu ấm nóng, đầy sức sống của xứ nhiệt đới, như màu vàng cam, màu đỏ, màu tím…Sự kết hợp này mang đến cảm giác tươi mới và khơi nguồn năng lượng tuyệt vời
+.Kết hợp các vật liệu tự nhiên như gỗ, tre, mây và lụa. Những vật liệu này giúp tạo cảm giác ấm áp và kết cấu, đồng thời mang lại cảm giác tự nhiên vào không gian.Dệt là một trong nhữngthủ công lâu đời nhất ở Việt Nam. Vật liệu này thường được kết hợp với các vật liệu khác như da hoặc gỗ.Những chiếc rèm cửa được chọn thường có họa tiết đơn giản, màu sắc trung tính như trắng, be, xám, nâu.
+Sàn được làm từ các loại gỗ có xuất xứ từ khu vực Đông Dương như gỗ Teak, Sồi, Hương, gỗ Lim, Căm xe.Gỗ thường có màu sắc đậm, vân gỗ rõ nét, có độ bền cao và đặc tính chống mối mọt tốt.  Phù hợp với phong cách kiến trúc Pháp.Gạch bông lát sàn là một đặc trưng của Indochine. Chúng thường được làm từ đất nung, được trang trí bằng các hoa văn dạng hình học.
+Đa số gạch có màu xanh lá cây, màu đen, trắng hoặc màu đỏ. Tường thường được làm bằng các vật liệu tự nhiên (đá, gạch, hoặc gỗ) Sơn tường thường có màu sắc ấm áp, tạo cảm giác gần gũi và ấm cúng.Các chi tiết trang trí phức tạp bị loại bỏ. Hoa văn Á Đông cách điệu đã thay thế các chi tiết trang trí Châu Âu. Một số họa tiết phổ biến phong cách Indochine:
+Hoa văn được thiết kế từ những hình ảnh thiên nhiên như hoa, lá, chim và cá. Hoa văn thường được khắc hoặc in lụa trên các bề mặt gỗ hoặc đá.Tinh tú: là một loại họa tiết trang trí được làm từ gỗ, sừng, đá, sứ, đồng và các vật liệu khác. Tinh tú thường được dùng để trang trí trong nhà, tạo nên một diện mạo sang trọng và độc đáo.
+Khắc trang trí: đây là một loại họa tiết trang trí được khắc trên các bề mặt gỗ hoặc đá bằng tay. Các khắc trang trí thường được thiết kế với các họa tiết như ngựa, rồng, hoa văn và chữ Hán.Trang trí trên mọi bộ phận của công trình. Ngoài các đề tài truyền thống, còn có các đề tài từ Phương Tây. Màu sắc đa dạng, rực rỡ.
+Nón lá: là một trong những biểu tượng của văn hóa Việt Nam và thường được sử dụng làm phụ kiện trang trí trong phong các
+h Indochine. Những chiếc nón lá được treo lên tường hay trần nhà có thể tạo ra một không gian độc đáo và gần gũi với thiên nhiên.Sự kết hợp này mang đến
+cảm giác tươi mới và khơi nguồn năng lượng tuyệt vời.Rèm cửa: là một phụ kiện trang trí quan trọng trong phong cách Indochine.</t>
+  </si>
+  <si>
+    <t>Bí mật phong cách nội thất Hy Lạp và những ý tưởng chưa được khai phá</t>
+  </si>
+  <si>
+    <t>Trần Thị mm</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/bimatphongcachnoithathylapvanhungytuongchuaduockhaipha.png?alt=media&amp;token=8410e42a-aff8-417c-9fcf-5624d2a1e0f5</t>
+  </si>
+  <si>
+    <t>Phong cách Hy Lạp (cổ đại) là phong cách mang tính duy tâm thẩm mỹ cao nhưng bình dị và hoàn hảo của trí óc nghệ thuật.</t>
+  </si>
+  <si>
+    <t>Phong cách Wabi-sabi dựa trên triết lý cổ xưa của Nhật Bản, có thể được hiểu như sau:“Wabi” có nghĩa là sự đơn giản, khiêm tốn, mời gọi trái tim rộng mở. Đồng thời tách ra khỏi sự phù phiếm của chủ nghĩa vật chất. Để từ đó, có thể trải nghiệm sự phong phú về mặt tinh thần.
+“Sabi” có nghĩa là “sự in dấu của thời gian”, thể hiện bằng tác động của thời gian lên một đối tượng. Cách vạn vật sinh ra, phát triển, già đi và suy tàn. Khái niệm Wabi-sabi bắt nguồn từ triết lý truyền thống lâu đời của Nhật Bản. Nó thể hiện tinh thần, lối sống, nghệ thuật và văn hóa của Nhật Bản. Tất cả trong một.
+Wabi Sabi tập trung vào việc “tìm lại vẻ đẹp nguyên bản”, khiêm tốn và không tô điểm. Bởi quan điểm thiết kế Wabi Sabi cho rằng “quá hoàn hảo sẽ là không hoàn hảo”.Triết lý Wabi-sabi cho rằng, mọi sự vật trên đời đều không hoàn hảo. Và chính sự không hoàn hảo đó đã tạo nên vẻ đep một cách tự nhiên, không trùng lặp.
+Nói cách khác, Wabi Sabi là nghệ thuật tìm kiếm vẻ đẹp từ sự không hoàn hảo một cách tự nhiên, cũng như chấp nhận chu kỳ phát triển &amp; suy tàn thuận theo tự nhiên.Wabi-Sabi không phải là một phong cách thiết kế nội thất cụ thể, mà là một thế giới quan. Nó tập trung vào ý tưởng tìm kiếm vẻ đẹp từ sự không hoàn hảo. Nhấn mạnh việc chấp nhận mọi thứ vốn có, hơn là phấn đấu cho sự hoàn hảo.
+Và mặc dù wabi-sabi là một triết lý của Nhật Bản, nhưng nó lại xuất phát từ văn hóa Phật giáo Thiền của Trung Quốc. Thời gian gần nhất là vào thời nhà Tống (960-1279). Nhưng thời gian chính xác là khi nào thì rất khó để xác định.Làm nổi bật bất cứ thứ gì cũ kỹ là điều phổ biến và cần thiết với thiết kế Wabi Sabi. Vấn đề là chấp nhận những gì cũ kỹ và tìm thấy vẻ đẹp trong đó. Thay vì cố gắng loại bỏ các yếu tố bị “lão hóa” tự nhiên, hãy thử sử dụng chúng.
+Phong cách Wabi-Sabi là một ý tưởng, không phải là một thứ hữu hình mà bạn có thể thấy ngay được. Bạn có thể nhìn vào một thiết kế, và cảm thấy nó được lấy cảm hứng từ wabi sabi, nhưng rất khó giải thích vì sao.Thực tế, bạn có thể tìm thấy vẻ đẹp nguyên bản trong bất cứ thứ gì. Thế nhưng có thể gọi nó là Wabi-Sabi không? Có thể có, hoặc cũng có thể không. Tuy nhiên, có 7 yếu tố được liệt kê dưới đây để xác định. Tất nhiên đây không phải là duy nhất.Để thiết kế phong cách Wabi Sabi,
+bạn không bắt buộc phải tiết giản mọi thứ. Thay vào đó, hãy cân nhắc tầm quan trọng của nó đối với bạn. Nếu nó có ý nghĩa, hãy lưu giữ. Mục đích của sự đơn giản là tạo cảm giác yên bình.Triết lý Wabi-Sabi là tìm kiếm sự đơn giản. Đương nhiên, phong cách trang trí của bạn phải phù hợp với hệ tư tưởng này. Tránh trang trí quá mức. Đồ nội thất chú trọng chức năng, thiết thực và bền. Đặc biệt, đồ nội thất bằng gỗ được khuyến khích.Bất cứ điều gì quá đối xứng sẽ phá vỡ bản chất của wabi sabi. 
+Triết lý của Wabi Sabi là chấp nhận sự không hoàn hảo. Vì vậy nếu nội thất có tất cả các yếu tố trên, nhưng có nhiều tính chất đối xứng, thì nó sẽ không được coi là wabi sabi.Trong kiến trúc hiện đại, các nhà thiết kế luôn gắn Wabi-Sabi với chủ nghĩa tối giản. Nói cách khác, Wabi Sabi tập trung vào việc “trở lại những gì nguyên bản”. khiêm tốn, không tô điểm. Giữ đồ đạc ở mức tối thiểu, mục đích mang lại một tinh thần thư thái, và bình yên.  
+Ví dụ, trong căn hộ của bạn, lớp sơn bị bong tróc, và thay vì tu sửa nó, hãy học cách chấp nhận sự xuống cấp tự nhiên này. Mặt khác làm cho nó trông nghệ thuật hơn, như là một điểm nhấn độc đáo.Wabi-Sabi thể hiện quá trình “già” đi một cách tự nhiên của mọi sự vật. Vì vậy, khi bắt đầu trang bị nội thất, bạn nên lựa chọn những món đồ có thể chịu được thử thách của thời gian.
+Wabi sabi nói về sự vô thường, và không có gì là mãi mãi. Vì vậy hãy giữ lại các đồ đạc có in dấu thời gian. Nên nếu bạn đang thiết kế theo phong cách Wabi Sabi, hãy tránh những đồ vật sáng bóng. Thay vào đó hãy tìm những món đồ trang trí hữu cơ.Những gì không thể hiển hiện bằng từ ngữ, hoặc cảm nhận được bằng giác quan, thì đó chính là Yugen. Nói cách khác, Yugen không chỉ là vẻ đẹp bề ngoài (hoặc đó chỉ là một phần nhỏ). Vẻ đẹp nằm ở sâu thẳm bên trong. Thậm chí phải tưởng tượng mới thấy hết được.
+Sự tinh tế được thể hiện trong đồ nội thất như vách ngăn mờ hoặc rèm cửa. Một chút bí ẩn bằng cách giấu hờ hững, mà không chặn chúng khỏi tầm mắt.Đó là một trạng thái tâm trí của thể chất hoặc hoạt động tinh thần. Để đạt được điều này, cần loại bỏ tất cả những thứ lộn xộn không cần thiết, hoặc dùng đồ nội thất tối giản. Cố gắng tạo không gian mở và hòa mình vào đó và đón nhận chúng.
+“Khi bạn cảm thấy áp lực trong công việc, bạn có thể bước ra ngoài, đi dạo &amp; và nghỉ ngơi”. Phong cách Wabi Sabi đề cao sự tĩnh lặng, nhằm giúp tâm trí có một tư duy sáng suốt hơn.“Khi bạn chấp nhận sự không hoàn hảo của thiên nhiên và cuộc sống, bạn cũng sẽ mở lòng đón nhận những điều chưa biết và khác thường”. Khi bạn áp dụng nguyên tắc này vào cuộc sống của mình, bạn sẽ giải phóng bản thân khỏi áp lực của các quy tắc, giới hạn và tiêu chuẩn của xã hội. Đó chính là ý nghĩa của Datsuzoku. 
+Vì đề cao sự tự do, Datsuzoku cho phép vô số ý tưởng trong thiết kế nội thất. Ví dụ: sử dụng những chiếc bình có vết nứt, bể…để minh chứng cho thời gian chúng đã tồn tại.Hoàn hảo – Không hoàn hảo. Hai từ tương phản nhưng lại diễn tả chính xác về khái niệm Wabi-Sabi.Đây không phải là một “hướng dẫn” về thiết kế wabi sabi, nhưng nếu bạn đang tìm cách để kết hợp cho căn hộ, thì 4 yếu tố sau sẽ rất hữu ích: 
+Mộc mạc tự nhiên: phong cách wabi-sabi Nhật Bản nhấn mạnh đặc tính mộc, giản dị. Trang trí thủ công, vật liệu thô và màu sắc tự nhiên độc đáo. Những bề mặt tường gồ ghề được chào đón hơn trong thiết kế wabi sabi, thay vì bức tường có bề mặt nhẵn. Tường bê tông sẽ cho một cái nhìn hiện đại hơn. Với chất liệu vải, hãy chọn vải bông, vải lanh hoặc len.DIY: áp dụng nghệ thuật cổ xưa của kintsugi. 
+Nếu bạn muốn có phong cách wabi-sabi, bạn có thể tự làm bất cứ món đồ nào có thể có xung quanh bạn. Ví dụ tận dụng gốc cây để làm ghế đẩu. Bạn thậm, chí có thể lấy một tấm ván cũ để làm một chiếc ghế băng dài.Màu sắc: thiết kế nội thất nên được thực hiện với màu sắc trung tính và hài hòa.
+Phong cách wabi-sabi là một phong cách trang trí tự nhiên, tính cách điềm tĩnh. Sử dụng tông màu ấm, màu be, cho phòng kiểu Nhật và tông màu xám hoặc tối cho phòng khách.</t>
+  </si>
+  <si>
+    <t>Nét độc đáo của phong cách Tây Ban Nha trong thiết kế nội thất</t>
+  </si>
+  <si>
+    <t>Trần Thị uop</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/netdocdaocuaphongcachtaybannhatrongthietkenoithat.png?alt=media&amp;token=b192f38f-3834-4b03-a4a8-fa99897427c5</t>
+  </si>
+  <si>
+    <t>Phong cách nội thất Tây Ban Nha có nhiều điểm chung với phong cách Địa Trung Hải.</t>
+  </si>
+  <si>
+    <t>Sự kết hợp giữa phong cách Việt Nam và Pháp được gọi là indochine. Phong cách indochine là di sản nghệ thuật của người Pháp, được hình thành trong quá trình mở rộng thuộc địa ở một số nước châu Á. Tuy nhiên indochine tại Việt Nam đặc biệt phát triển, trong khi Campuchia ít được quan tâm. Và Lào, phần lớn bị bỏ quên.
+Phong cách này phát triển từ năm 1920 đến 1950. Trong số đó, có thể kể đến kiến trúc sư Pháp Ernest Hébrard, người đã thiết kế nhiều công trình đặc trưng của phong cách này tại Việt Nam, và các nước Đông Nam Á. Pháp thuộc địa hóa Việt Nam vào những năm 1880. Do đó, Việt Nam chịu ảnh hưởng của Pháp trong nhiều khía cạnh. Bao gồm nghệ thuật, kiến trúc, thời trang và ẩm thực.
+Đồng thời, người Pháp cũng đã thực hiện một số thay đổi quan trọng về kinh tế, xã hội và ngôn ngữ. Giống như cách họ đã thực hiện với các thuộc địa khác trên thế giới.Nổi bật nhất về ảnh hưởng của Pháp là Nhà hát lớn Hà Nội. Khách sạn Sofitel Metropole Legend Hanoi cũng là một ví dụ khác về phong cách thuộc địa Pháp.
+Ngay sau khi Việt Nam giành được độc lập, những ảnh hưởng đó vẫn còn. Bằng chứng là các di sản văn hóa kiến trúc phong cách indochine vẫn còn tồn tại đến ngày nay. Từ miền Bắc, miền Trung, cho đến miền Nam. Sau Cách mạng Pháp, ở Pháp xuất hiện niềm tin rằng, sứ mệnh của họ là truyền bá văn hóa và văn minh Pháp, biến dân cư của các thuộc địa thành người Pháp. Vậy, dễ hiểu vì sao phong cách indochine chịu ảnh hưởng nhiều từ văn hóa Pháp.
+Ảnh hưởng của Pháp thể hiện rõ nhất trong kiến trúc. Đặc biệt là thủ đô Hà Nội. Những đại lộ lớn, rợp bóng cây, được thiết kế giống những đại lộ ở Paris. Các biệt thự theo phong cách châu Âu khác nhau nằm dọc các con phố trong Khu phố Pháp.Thành phố Hồ Chí Minh đã trải qua một sự thay đổi mạnh mẽ trong những năm gần đây. Nhiều tòa nhà hiện đại mang dáng dấp kiến trúc Pháp. Trong đó, không thể không kể đến khách sạn Park Hyatt Saigon (xây dựng năm 2005).
+Tp. Huế là một trong những thành phố có kiến trúc Indochine đẹp nhất Việt Nam, nơi lưu giữ những di sản văn hóa, kiến trúc của thời kỳ đó. Điển hình như, nhà máy bia Tiger, ga Đông Ba, nhà thờ Con Gà, khách sạn Morin. Những tòa nhà này có điểm chung là kết hợp giữa hai phong cách kiến trúc Đông – Tây, mang một vẻ đẹp độc đáo.
+Các tòa nhà kiến trúc Indochine ở Huế đóng vai trò quan trọng trong việc bảo tồn và phát triển văn hóa và du lịch ở địa phương. Thu hút đông đảo du khách đến tham quan và tìm hiểu về lịch sử, văn hóa.Ngoài ra, Tòa thị chính thành phố, được người Pháp xây dựng vào năm 1908 và vẫn được sử dụng làm UBNN Thành Phố. Nhà thờ Đức Bà (được xây dựng vào cuối những năm 1800) và Nhà hát Lớn (hoàn thành năm 1897).
+Công trình kiến trúc đáng chú ý nhất gồm, La Residence Hue Hotel &amp; Spa, một kiệt tác Art Deco được xây dựng làm nhà khách cho Toàn quyền Đông Dương. Và Le Cercle Sportif, một tòa nhà theo phong cách Art Moderne, được dùng làm câu lạc bộ cho giới thượng lưu thuộc địa.Một địa danh khác là Bưu điện Trung tâm Sài Gòn, được thiết kế bởi Gustave Eiffel, với mái vòm và cửa sổ hình vòm, gợi nhớ đến những nhà ga đường sắt lớn của châu Âu.
+Di sản kiến trúc Indochine mang giá trị lịch sử đặc biệt, tượng trưng cho thời kỳ thuộc địa Pháp ở Đông Dương. Là một phần không thể thiếu trong việc bảo tồn và phát triển.Nghệ thuật kiến trúc được thể hiện cụ thể ở các yếu tố mặt bằng, kết cấu kiến trúc. Nổi bật nhất là hệ thống các biểu tượng, mô típ trang trí đặc trưng của triết học Á Đông.Công trình mang tính hoành tráng. Có khả năng biểu đạt nhiều cung bậc cảm xúcHình khối
+và trang trí mang đậm tính cổ điển. Có giá trị không chỉ về mặt kiến trúc mà còn về mặt lịch sử, văn hoá.Mặt đứng tuân thủ tính đối xứng nghiêm ngặt, cũng như nguyên tắc tổ chức đặc, rỗng.Mái ngói bằng hoặc dốc. Mục đích giảm bức xạ, chống nắng nóng..Mái ngói có nhiều lớp. Các góc của mái nhà được uốn cong, được trang trí bằng các phù điêu.Cây xanh có mối liên hệ chặt chẽ với công trình kiến trúc. Các khu vườn nhỏ hay sân thượng được sử dụng để làm dịu mát không khí.Các hồ nước
+, cảnh quan thiên nhiên được khai thác gắn liền với công trìnhKết cấu chịu lực chính là tường xây gạch, đá. Sử dụng vòm cuốn gạch với những kiểu khác nhau.Mái nhà thường làm đua ra để chống hắt (mưa), nhưng vẫn đảm bảo lấy sáng.Dùng đá làm móng, với đế móng rất rộng, nhằm cách ẩm cho tường móng.Thông gió tự nhiên bằng sự trao đổi không khí liên tục giữa các phòng. Quá trính này được thực hiện bằng giải pháp kiến trúc.Điều thú vị là phong cách indochine,
+ngoài tính thẩm mỹ, còn phù hợp với tập quán sinh hoạt và khí hậu nhiệt đới, nóng ẩm ở Việt Nam. Bố cục đối xứng, nhấn mạnh trung tâm của không gian.Tổ hợp các thức cột nghiêm ngặt, sử dụng nhiều họa tiết trang trí và điêu khắc.Cửa sổ mái là một đặc trưng mang tính khác biệt của phong cách indochine. Nhằm làm thông thoáng khí nóng cho tầng áp mái.Những bức mành tre hay rèm vải cho những ô cửa.Cửa sổ lớn, được thiết kế để tận dụng tối đa ánh sáng và gió tự nhiên.
+Cửa thường có màu vàng, trắng, xanh.Hệ thống cửa 2 lớp, cửa chớp (trong kính ngoài chớp). Vòm cửa cong, được trang trí gờ phào chỉ.Chú trọng trần, tường, sàn, không gian khánh tiết, sảnh đón, sảnh đệm.Tường dày, cho cảm giác mát mẻ vào mùa hè, và ấm áp vào mùa đông.Nền cao, làm bằng gạch, hoàn thiện gạch hoa (gạch bông) kiểu PhápKhoảng đệm giữa các không gian (ban công, hiên, lozia…) nhằm điều tiết không khí với môi trương xung quanh 
+Màu sắc phong cách Indochine bao gồm: đỏ, vàng, cam, xanh lá cây, xanh navy, trắng và đen. Màu nhấn là những gam màu ấm nóng, đầy sức sống của xứ nhiệt đới, như màu vàng cam, màu đỏ, màu tím… Màu sắc phong cách Indochine bao gồm: đỏ, vàng, cam, xanh lá cây, xanh navy, trắng và đen. Màu nhấn là những gam màu ấm nóng, đầy sức sống của xứ nhiệt đới, như màu vàng cam, màu đỏ, màu tím…Sự kết hợp này mang đến cảm giác tươi mới và khơi nguồn năng lượng tuyệt vời
+.Kết hợp các vật liệu tự nhiên như gỗ, tre, mây và lụa. Những vật liệu này giúp tạo cảm giác ấm áp và kết cấu, đồng thời mang lại cảm giác tự nhiên vào không gian.Dệt là một trong nhữngthủ công lâu đời nhất ở Việt Nam. Vật liệu này thường được kết hợp với các vật liệu khác như da hoặc gỗ.Những chiếc rèm cửa được chọn thường có họa tiết đơn giản, màu sắc trung tính như trắng, be, xám, nâu.
+Sàn được làm từ các loại gỗ có xuất xứ từ khu vực Đông Dương như gỗ Teak, Sồi, Hương, gỗ Lim, Căm xe.Gỗ thường có màu sắc đậm, vân gỗ rõ nét, có độ bền cao và đặc tính chống mối mọt tốt.  Phù hợp với phong cách kiến trúc Pháp.Gạch bông lát sàn là một đặc trưng của Indochine. Chúng thường được làm từ đất nung, được trang trí bằng các hoa văn dạng hình học.
+Đa số gạch có màu xanh lá cây, màu đen, trắng hoặc màu đỏ. Tường thường được làm bằng các vật liệu tự nhiên (đá, gạch, hoặc gỗ) Sơn tường thường có màu sắc ấm áp, tạo cảm giác gần gũi và ấm cúng.Các chi tiết trang trí phức tạp bị loại bỏ. Hoa văn Á Đông cách điệu đã thay thế các chi tiết trang trí Châu Âu. Một số họa tiết phổ biến phong cách Indochine:
+Hoa văn được thiết kế từ những hình ảnh thiên nhiên như hoa, lá, chim và cá. Hoa văn thường được khắc hoặc in lụa trên các bề mặt gỗ hoặc đá.Tinh tú: là một loại họa tiết trang trí được làm từ gỗ, sừng, đá, sứ, đồng và các vật liệu khác. Tinh tú thường được dùng để trang trí trong nhà, tạo nên một diện mạo sang trọng và độc đáo.
+Khắc trang trí: đây là một loại họa tiết trang trí được khắc trên các bề mặt gỗ hoặc đá bằng tay. Các khắc trang trí thường được thiết kế với các họa tiết như ngựa, rồng, hoa văn và chữ Hán.Trang trí trên mọi bộ phận của công trình. Ngoài các đề tài truyền thống, còn có các đề tài từ Phương Tây. Màu sắc đa dạng, rực rỡ.
+Nón lá: là một trong những biểu tượng của văn hóa Việt Nam và thường được sử dụng làm phụ kiện trang trí trong phong cách Indochine. 
+Những chiếc nón lá được treo lên tường hay trần nhà có thể tạo ra một không gian độc đáo và gần gũi với thiên nhiên.Sự kết hợp này mang đến cảm giác
+tươi mới và khơi nguồn năng lượng tuyệt vời.Rèm cửa: là một phụ kiện trang trí quan trọng trong phong cách Indochine.</t>
+  </si>
+  <si>
+    <t>Kinh nghiệm sửa chữa cải tạo nhà ở và căn hộ chung cư</t>
+  </si>
+  <si>
+    <t>Trần Thị qaz</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/kinhnghiemsuachuacaitaonhaovacanhochungcu.png?alt=media&amp;token=191284c4-f7d1-48d5-b580-ae884f201aad</t>
+  </si>
+  <si>
+    <t>Cải tạo sửa chữa nhà cửa sau một thời gian dài sử dụng là điều cần thiết. Hoặc đơn giản là bạn muốn “tân trang” lại căn nhà theo sở thích của mình.</t>
   </si>
 </sst>
 </file>
@@ -200,20 +505,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.57421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="57.7421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.19921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="66.171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.25390625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.2265625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.640625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="149.34375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="183.53125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="18.703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="187.015625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="160.90625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -248,7 +553,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>3011.0</v>
+        <v>3016.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>9</v>
@@ -260,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>12</v>
@@ -277,7 +582,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>3012.0</v>
+        <v>3017.0</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>16</v>
@@ -289,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>18</v>
@@ -306,7 +611,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>3014.0</v>
+        <v>3018.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>21</v>
@@ -315,36 +620,36 @@
         <v>22</v>
       </c>
       <c r="D4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="s" s="0">
+      <c r="G4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s" s="0">
+      <c r="I4" t="s" s="0">
         <v>25</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>3015.0</v>
+        <v>3019.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>0.0</v>
@@ -353,13 +658,274 @@
         <v>28</v>
       </c>
       <c r="G5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="I5" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="I5" t="s" s="0">
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>3020.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>31</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>3021.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>3022.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>3023.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>3024.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>3025.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>3026.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>3027.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>3028.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ASM_Future-Interior_Project-G2/src/main/resources/static/fileExport/baiDangs.xlsx
+++ b/ASM_Future-Interior_Project-G2/src/main/resources/static/fileExport/baiDangs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
   <si>
     <t>ID BÀI ĐĂNG</t>
   </si>
@@ -47,43 +47,34 @@
     <t>Trần Thị B</t>
   </si>
   <si>
+    <t>2023-06-18</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/chiemnguong50mauketrangtridocdaokhongtheroimat.png?alt=media&amp;token=2ed6c4eb-318a-4234-9789-71b60ce0957d</t>
+  </si>
+  <si>
+    <t>nlphucthnh123</t>
+  </si>
+  <si>
+    <t>Nhiều ngôi nhà đã được thiết kế với đầy đủ khu vực. Tuy nhiên, nhu cầu bổ sung kệ luôn cần thiết cho bất kỳ không gian nội thất nào.</t>
+  </si>
+  <si>
+    <t>Trang trí bằng kệ là một cách tuyệt vời để mang lại cá tính cho ngôi nhà. Cho dù chúng được cố định vào tường hay là một phần của thiết bị, kệ trang trí vẫn là yếu tố hoàn hảo để lưu trữ, bày trí hoặc tạo điểm nhấn cho bất kỳ không gian nào. Kệ không chỉ là giải pháp lưu trữ thực tế, mà còn là một vật dụng trang trí đáng yêu. Là nơi để trưng bày, sáng tạo, thể hiện sở thích cá nhân, và gợi lại những kỷ niệm vui vẻ. Kệ được sử dụng với nhiều mục đích, và những không gian khác nhau. 
+Kệ trong nhà ở, căn hộ chung cư, trong cửa hàng, nơi trưng bày, v.v…Tùy vào chức năng mà kệ sẽ có những hình thức thiết kế khác nhau.Nhiều ngôi nhà đã được thiết kế với đầy đủ khu vực lưu trữ, như tủ kho, tủ âm tường. Tuy nhiên, nhu cầu bổ sung kệ luôn cần thiết cho bất kỳ không gian nội thất nào.Tất cả phụ thuộc vào trọng lượng đặt trên kệ. Các đề xuất dưới đây chỉ nhằm mục đích tham khảo. Nếu có thể, hãy lắng nghe tư vấn của nhà thiết kế.Vật liệu được sử dụng phổ biến nhất cho kệ là gỗ (gỗ tự nhiên và gỗ công nghiệp). Kệ gỗ có tính linh hoạt khi sản xuất.
+Bền đẹp, và phù hợp với mọi môi trường.Kệ cũng có thể được làm bằng thép hoặc thủy tinh, Tuy nhiên, chúng phù hợp với nội thất thiết kế theo phong cách hiện đại. Nhựa cũng là một lựa chọn thay thế rẻ hơn.Tuy nhiên, nên tránh đặt bất kỳ đồ vật quá nặng lên loại kệ này. Với công nghệ và máy móc hiện đại hiện nay, vật liệu làm tủ kệ không còn bị giới hạn, và đủ sức đáp ứng các ý tưởng táo bạo nhất.Là nơi hoàn hảo để thể hiện ý tưởng và sở thích cá nhân, cũng như lưu trữ những kỹ niệm đẹp. Chúng có thể hiện diện ở bất cứ không gian nội thất nào. Từ phòng khách, phòng ngủ, nhà kho, v.v…Tuy nhiên, với kệ treo tường, các vật trang trí phải có kích thước và trọng lượng vừa phải.Mặc dù không có quy tắc nào cho mẫu kệ để trang trí. Thế nhưng, những vật dụng có trọng lượng nặng, kệ cần có sự chắc chắn. Do đó kệ đứng là một giải pháp hoàn hảo. Hoặc một vách ngăn nữa kín nữa mở để phân chia khu vực, 
+thì kệ đứng là một giải pháp rất hiệu quả.Kệ trang trí có đèn LedMẫu kệ trang trí có gắn đèn Led là xu hướng hiện đại và rất được ưa chuộng. Công nghệ đèn led hiện nay rất đa dạng về màu sắc. Bất kỳ mẫu kệ thẳng, cong phức tạp, đèn led vẫn đáp ứng được yêu cầu của nhà thiết kế.Kệ kết hợp tủ TiviĐối với kệ TV, hệ tủ thường là một tổ hợp của nhiều modul, vừa tủ vừa kệ. Phần tủ phía dưới, phần kệ phía trên. Đó cũng là mẫu thiết kế phổ biến trong nhà phố và căn hộ. Vì hệ thống này tránh được sự cồng kềnh, cho không gian thoáng và rộng hơn.Tủ kệ là thứ không thể thiếu trong nội thất, nhất là trong phòng khách. Chúng là một ý tưởng tuyệt vời để trang trí, và tạo điểm nhấn cho bức tường. Đồng thời cung cấp thêm chổ để lưu trữ cho nhiều đồ đạc như, sách, bình hoa, đồ trang trí. Với những phòng khách có diện tích nhỏ, không đủ chổ cho tủ, thì kệ là giải pháp tốt nhất. Nhờ sự tự do trong bố cục, kệ có thêm diện tích để trưng bày, và nhiều ý tưởng để sáng tạo.
+Ngoài kiểu kệ treo tường, những mẫu thiết kế kệ âm vào tường cũng là một giải pháp hoàn hảo cho phòng khách. Ưu điểm của kệ âm hốc tường là chịu được trọng lượng lớn. Nhược điểm là độ sâu kệ không lớn, do phụ thuộc vào độ dày của tường. Kệ âm hốc tường là cách đơn giản nhưng hiệu quả cao, chi phí thấp. Tuy nhiên, kiểu kệ âm tường không linh hoạt, và thường phải được hoàn thiện cùng với quá trình cải tạo, xây dựng.Kệ trang trí phòng ngủ. Phòng tắm là nơi có rất nhiều thứ để lưu trữ. Riêng các loại mỹ phẩm, dầu gội, dưỡng thể đã có rất nhiều bình, chai lọ với đủ loại khác nhau. Do đó, bất kỳ bổ sung kệ nào cho phòng tắm, suy nghĩ đầu tiên phải là tính thực tế. Hãy cân nhắc xem bạn muốn sử dụng chúng như thế nào, bạn sẽ để cái gì trong phòng tắm? Bởi điều này quyết định kích thước, kiểu dáng kệ trong phòng tắm. Lời khuyên là nên dùng những vật liệu chống ẩm. Ví dụ như đá, kính, gỗ gốc nhựa.Tất nhiên, kệ không chỉ giới hạn ở phòng khách. Kệ trong phòng ngủ có thể là một cách tuyệt vời để trưng bày những món đồ riêng tư, kết hợp giữa các khung ảnh với bình hoa, cây xanh, v.v… Lưy ý là không nên lắp đặt kệ ngay phía trên đầu giường, nơi các vật dụng có thể rơi xuống bất kỳ lúc nào. Thay vào đó, hãy đặt kệ ở bất kỳ vị trí nào, nơi mà bạn thấy cần thiết để trang trí, và đủ sức sự hấp dẫn về mặt thị giác. Kệ là một cách tuyệt vời để tăng diện tích cho không gian lưu trữ. Nếu diệ tích bếp nhỏ,
+việc lắp đặt các kệ treo tường có thể mở rộng không gian của bạn, và cho phép bạn trưng bày các dụng cụ yêu thích của mình. Một ưu điểm khác của kệ nhà bếp là bạn không cần phải lục tung mọi thứ để tìm đồ. Quy hoạch nhà kho một cách ngăn nắp, ngoài tủ, chắc chắn không thể bổ sung thêm hệ thống kệ treo tường. Đừng nghĩ rằng, kệ cho nhà kho là nhàm chán. Ngược lại, chúng là một trong những yếu tố thú vị, đòi hỏi tính tổ chức khoa học và linh hoạt nhất có thể.Rất khó để đề xuất một kích thước chính xác. Tùy theo mục đích sử dụng, trọng lượng đặt trên kệ mà kích thước kệ sẽ khác nhau. Chiều dài kệ có thể không giới hạn. Nhưng chiều sâu sẽ có một số yêu cầu chung.Các kệ treo tường hiện đại không chú trọng nhiều hình thức.  Hãy giữ mọi thứ thật đơn giản. Chức năng lưu trữ và trưng bày là mới là yếu tố chính. Bố trí kệ với vị trí bất đối xứng, tự do. Sắp xếp kệ theo chủ đề hoặc màu sắc, tỷ lệ cũng là một hình thái nghệ thuật của những mẫu kệ hiện đại.
+Với kiểu kệ phong cách cổ điển, hình thức luôn đi cùng chức năng. Hoàn thiện tinh xảo. Không chấp nhận những vật liệu rẻ tiền. Các đường viền, phào chỉ, hoặc hoa văn là yếu tố tô điểm rất bắt mắt. Cách bố trí kệ trong không gian cổ điển thường rất đối xứng. Chú trọng về tỷ lệ và sự cân bằng, và thống nhất trong ngôn ngữ thiết kế.</t>
+  </si>
+  <si>
+    <t>Khám phá phong cách indochine độc đáo và chi tiết nhất</t>
+  </si>
+  <si>
+    <t>Trần Thị C</t>
+  </si>
+  <si>
     <t>2023-06-20</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/chiemnguong50mauketrangtridocdaokhongtheroimat.png?alt=media&amp;token=2ed6c4eb-318a-4234-9789-71b60ce0957d</t>
-  </si>
-  <si>
-    <t>nlphucthnh123</t>
-  </si>
-  <si>
-    <t>Nhiều ngôi nhà đã được thiết kế với đầy đủ khu vực. Tuy nhiên, nhu cầu bổ sung kệ luôn cần thiết cho bất kỳ không gian nội thất nào.</t>
-  </si>
-  <si>
-    <t>Trang trí bằng kệ là một cách tuyệt vời để mang lại cá tính cho ngôi nhà. Cho dù chúng được cố định vào tường hay là một phần của thiết bị, kệ trang trí vẫn là yếu tố hoàn hảo để lưu trữ, bày trí hoặc tạo điểm nhấn cho bất kỳ không gian nào.
-Kệ không chỉ là giải pháp lưu trữ thực tế, mà còn là một vật dụng trang trí đáng yêu. Là nơi để trưng bày, sáng tạo, thể hiện sở thích cá nhân, và gợi lại những kỷ niệm vui vẻ.Kệ được sử dụng với nhiều mục đích, và những không gian khác nhau. 
-Kệ trong nhà ở, căn hộ chung cư, trong cửa hàng, nơi trưng bày, v.v…Tùy vào chức năng mà kệ sẽ có những hình thức thiết kế khác nhau.
-Nhiều ngôi nhà đã được thiết kế với đầy đủ khu vực lưu trữ, như tủ kho, tủ âm tường. Tuy nhiên, nhu cầu bổ sung kệ luôn cần thiết cho bất kỳ không gian nội thất nào.Tất cả phụ thuộc vào trọng lượng đặt trên kệ.
-Các đề xuất dưới đây chỉ nhằm mục đích tham khảo. Nếu có thể, hãy lắng nghe tư vấn của nhà thiết kế.Vật liệu được sử dụng phổ biến nhất cho kệ là gỗ (gỗ tự nhiên và gỗ công nghiệp). Kệ gỗ có tính linh hoạt khi sản xuất.
-Bền đẹp, và phù hợp với mọi môi trường.Kệ cũng có thể được làm bằng thép hoặc thủy tinh, Tuy nhiên, chúng phù hợp với nội thất thiết kế theo phong cách hiện đại. Nhựa cũng là một lựa chọn thay thế rẻ hơn.
-Tuy nhiên, nên tránh đặt bất kỳ đồ vật quá nặng lên loại kệ này.Với công nghệ và máy móc hiện đại hiện nay, vật liệu làm tủ kệ không còn bị giới hạn, và đủ sức đáp ứng các ý tưởng táo bạo nhất.Là nơi hoàn hảo để thể hiện ý tưởng và sở thích cá nhân, cũng như lưu trữ những kỹ niệm đẹp. Chúng có thể hiện diện ở bất cứ không gian nội thất nào. 
-Từ phòng khách, phòng ngủ, nhà kho, v.v…Tuy nhiên, với kệ treo tường, các vật trang trí phải có kích thước và trọng lượng vừa phải.Mặc dù không có quy tắc nào cho mẫu kệ để trang trí. Thế nhưng, những vật dụng có trọng lượng nặng, kệ cần có sự chắc chắn. Do đó kệ đứng là một giải pháp hoàn hảo. Hoặc một vách ngăn nữa kín nữa mở để phân chia khu vực, 
-thì kệ đứng là một giải pháp rất hiệu quả.Kệ trang trí có đèn LedMẫu kệ trang trí có gắn đèn Led là xu hướng hiện đại và rất được ưa chuộng. Công nghệ đèn led hiện nay rất đa dạng về màu sắc. Bất kỳ mẫu kệ thẳng, cong phức tạp, đèn led vẫn đáp ứng được yêu cầu của nhà thiết kế.Kệ kết hợp tủ TiviĐối với kệ TV, hệ tủ thường là một tổ hợp của nhiều modul, 
-vừa tủ vừa kệ. Phần tủ phía dưới, phần kệ phía trên. Đó cũng là mẫu thiết kế phổ biến trong nhà phố và căn hộ. Vì hệ thống này tránh được sự cồng kềnh, cho không gian thoáng và rộng hơn.Tủ kệ là thứ không thể thiếu trong nội thất, nhất là trong phòng khách. Chúng là một ý tưởng tuyệt vời để trang trí, và tạo điểm nhấn cho bức tường. Đồng thời cung cấp thêm chổ để lưu trữ cho nhiều đồ đạc như, sách, bình hoa, đồ trang trí.
-Với những phòng khách có diện tích nhỏ, không đủ chổ cho tủ, thì kệ là giải pháp tốt nhất. Nhờ sự tự do trong bố cục, kệ có thêm diện tích để trưng bày, và nhiều ý tưởng để sáng tạo.
-Ngoài kiểu kệ treo tường, những mẫu thiết kế kệ âm vào tường cũng là một giải pháp hoàn hảo cho phòng khách. Ưu điểm của kệ âm hốc tường là chịu được trọng lượng lớn. Nhược điểm là độ sâu kệ không lớn, do phụ thuộc vào độ dày của tường.
-Kệ âm hốc tường là cách đơn giản nhưng hiệu quả cao, chi phí thấp. Tuy nhiên, kiểu kệ âm tường không linh hoạt, và thường phải được hoàn thiện cùng với quá trình cải tạo, xây dựng.Kệ trang trí phòng ngủ. Phòng tắm là nơi có rất nhiều thứ để lưu trữ. Riêng các loại mỹ phẩm, dầu gội, dưỡng thể đã có rất nhiều bình, chai lọ với đủ loại khác nhau. Do đó, bất kỳ bổ sung kệ nào cho phòng tắm, suy nghĩ đầu tiên phải là tính thực tế.
-Hãy cân nhắc xem bạn muốn sử dụng chúng như thế nào, bạn sẽ để cái gì trong phòng tắm? Bởi điều này quyết định kích thước, kiểu dáng kệ trong phòng tắm. Lời khuyên là nên dùng những vật liệu chống ẩm. Ví dụ như đá, kính, gỗ gốc nhựa.Tất nhiên, kệ không chỉ giới hạn ở phòng khách. Kệ trong phòng ngủ có thể là một cách tuyệt vời để trưng bày những món đồ riêng tư, kết hợp giữa các khung ảnh với bình hoa, cây xanh, v.v…
-Lưy ý là không nên lắp đặt kệ ngay phía trên đầu giường, nơi các vật dụng có thể rơi xuống bất kỳ lúc nào. Thay vào đó, hãy đặt kệ ở bất kỳ vị trí nào, nơi mà bạn thấy cần thiết để trang trí, và đủ sức sự hấp dẫn về mặt thị giác. Kệ là một cách tuyệt vời để tăng diện tích cho không gian lưu trữ. Nếu diệ tích bếp nhỏ,
-việc lắp đặt các kệ treo tường có thể mở rộng không gian của bạn, và cho phép bạn trưng bày các dụng cụ yêu thích của mình. Một ưu điểm khác của kệ nhà bếp là bạn không cần phải lục tung mọi thứ để tìm đồ. Quy hoạch nhà kho một cách ngăn nắp, ngoài tủ, chắc chắn không thể bổ sung thêm hệ thống kệ treo tường
-. Đừng nghĩ rằng, kệ cho nhà kho là nhàm chán. Ngược lại, chúng là một trong những yếu tố thú vị, đòi hỏi tính tổ chức khoa học và linh hoạt nhất có thể.Rất khó để đề xuất một kích thước chính xác. Tùy theo mục đích sử dụng, trọng lượng đặt trên kệ mà kích thước kệ sẽ khác nhau. Chiều dài kệ có thể không giới hạn. Nhưng chiều sâu sẽ có một số yêu cầu chung.Các kệ treo tường hiện đại không chú trọng nhiều hình thức. 
-Hãy giữ mọi thứ thật đơn giản. Chức năng lưu trữ và trưng bày là mới là yếu tố chính. Bố trí kệ với vị trí bất đối xứng, tự do. Sắp xếp kệ theo chủ đề hoặc màu sắc, tỷ lệ cũng là một hình thái nghệ thuật của những mẫu kệ hiện đại.
-Với kiểu kệ phong cách cổ điển, hình thức luôn đi cùng chức năng. Hoàn thiện tinh xảo. Không chấp nhận những vật liệu rẻ tiền. Các đường viền, phào chỉ, hoặc hoa văn là yếu tố tô điểm rất bắt mắt. Cách bố trí kệ trong không gian cổ điển thường rất đối xứng. Chú trọng về tỷ lệ và sự cân bằng, và thống nhất trong ngôn ngữ thiết kế.</t>
-  </si>
-  <si>
-    <t>Khám phá phong cách indochine độc đáo và chi tiết nhất</t>
-  </si>
-  <si>
-    <t>Trần Thị C</t>
   </si>
   <si>
     <t>https://firebasestorage.googleapis.com/v0/b/future-interior.appspot.com/o/khamphaphongcanhindochinedocdaovachitietnhat.png?alt=media&amp;token=c8314d1b-b1d6-4e9e-864e-6bda411b3852</t>
@@ -565,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>12</v>
@@ -591,22 +582,22 @@
         <v>17</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -614,28 +605,28 @@
         <v>3018.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -643,28 +634,28 @@
         <v>3019.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -672,28 +663,28 @@
         <v>3020.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -701,28 +692,28 @@
         <v>3021.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -730,28 +721,28 @@
         <v>3022.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -759,28 +750,28 @@
         <v>3023.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -788,28 +779,28 @@
         <v>3024.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -817,28 +808,28 @@
         <v>3025.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
@@ -846,28 +837,28 @@
         <v>3026.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -875,28 +866,28 @@
         <v>3027.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E13" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -904,28 +895,28 @@
         <v>3028.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E14" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
